--- a/docs/AMD_Radar.xlsx
+++ b/docs/AMD_Radar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bportugal365-my.sharepoint.com/personal/wwu206_bdp_pt/Documents/Ficheiros de Conversa do Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AMD_Radar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB51799A-69A4-44B0-A6BC-611ED8C25966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC888D0C-3AD6-4883-9B72-42C36D54FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES &amp; FRAMEWORKS (IN)" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">AMD_Radar_EN!$A$1:$H$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">AMD_Radar_PT!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">AMD_Radar_PT!$A$1:$H$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LANGUAGES &amp; FRAMEWORKS (IN)'!$D$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LANGUAGES &amp; FRAMEWORKS (OUT)'!$D$1:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PLATFORMS (IN)'!$D$1:$I$23</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="768">
   <si>
     <t>Id</t>
   </si>
@@ -5266,6 +5266,363 @@
   </si>
   <si>
     <t>TECHNIQUES</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Segurança e Conformidade (Security &amp; Compliance)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A proteção de dados e a aplicação de controlos e regras de conformidade orientadas por políticas é crucial para a proteção dos dados e manutenção de padrões legais. As abordagens envolvem a definição de políticas claras que regulam o tratamento, a segurança e a privacidade dos dados, e a implementação de mecanismos para garantir que essas políticas sejam seguidas de forma consistente em todos os produtos de dados disponibilizados.&lt;/p&gt;
+&lt;p&gt;Mecanismo de governação de segurança concebido para detetar e restringir a partilha ou movimentação de dados sensíveis dentro dos artefactos do Microsoft Fabric (ex: lakehouses, conjuntos de dados, relatórios). Integra-se com o motor de Políticas de Prevenção de Perda de Dados (Data Loss Prevention, DLP) do Microsoft Purview e com o Centro de Conformidade.&lt;/p&gt;
+&lt;p&gt;Estabelece o uso de etiquetas de sensibilidade, classificação automática e políticas DLP para aplicar controlos de acesso e garantir conformidade em toda a cadeia de dados — incluindo conjuntos de dados, relatórios, lakehouses e modelos semânticos. Permite uma governação federada com controlos centrais ("guardrails"), bloqueio de exportações e fluxos de auditoria.&lt;/p&gt;
+&lt;p&gt;Suporta herança de políticas, integração com ferramentas de catalogação (ex: Microsoft Purview) e alinha-se com estratégias de entrega segura de produtos de dados.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Políticas de Prevenção de Perda de Dados (Data Loss Prevention Policies)&lt;/li&gt;
+  &lt;li&gt;Governação Unificada de Acessos Baseada em Funções (Unified Role-Based Access Governance)&lt;/li&gt;
+  &lt;li&gt;Permissões a Nível de Item (Item-Level Permissions)&lt;/li&gt;
+  &lt;li&gt;Governação Federada de Identidades (Federated Identity Governance)&lt;/li&gt;
+  &lt;li&gt;Políticas de Governação Padrão &lt;strong&gt;(futuro)&lt;/strong&gt; (Governance Default Policies)&lt;/li&gt;
+  &lt;li&gt;Visualização de Linhagem (Lineage View)&lt;/li&gt;
+  &lt;li&gt;Microsoft Purview (ferramenta de catalogação e conformidade)&lt;/li&gt;
+  &lt;li&gt;Modelos Semânticos, Relatórios e Conjuntos de Dados do Fabric&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Proteção de Dados e Conformidade Orientadas por Políticas para Produtos de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Gestão do Ciclo de Vida dos Dados (Data Lifecycle Management)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Governança e Automação&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A Gestão do Ciclo de Vida é uma técnica emergente que vai além das ferramentas individuais, abrangendo práticas integradas de governação, promoção, versionamento e automação de ativos de dados e análises. Esta técnica aplica-se transversalmente aos espaços de trabalho (workspaces), notebooks, pipelines, dataflows, modelos semânticos e conjuntos de dados no Microsoft Fabric.&lt;/p&gt;
+  &lt;p&gt;Trata-se de um padrão de governação e automação que permite gerir o ciclo completo de ativos analíticos — desde a promoção entre ambientes (ex: Desenvolvimento, Testes, Produção), até ao versionamento, validação, auditoria e monitorização contínua.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Exemplos de ativos abrangidos:&lt;/strong&gt; notebooks, pipelines, dataflows, modelos semânticos (semantic models), conjuntos de dados (datasets), etc.&lt;/p&gt;
+  &lt;p&gt;Esta técnica interliga várias ferramentas e práticas eventualmente já adotadas na plataforma e é essencial para garantir a escalabilidade, rastreabilidade e segurança no desenvolvimento e operação de produtos de dados.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência técnica:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/fabric/cicd/" target="_blank"&gt;Gestão de Ciclo de Vida no Microsoft Fabric (Fabric Lifecycle Management)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Gestão do Ciclo de Vida dos Dados</t>
+  </si>
+  <si>
+    <t>Integração Contínua/Entrega Contínua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;CI/CD (Integração Contínua e Entrega/Implementação Contínua)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Automação e Governança&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;CI/CD (Continuous Integration / Continuous Delivery ou Deployment) é uma prática moderna de desenvolvimento e operação que automatiza os processos de construção, validação e entrega de código. No contexto de plataformas de dados, esta técnica permite orquestrar e promover notebooks, pipelines, modelos semânticos e outros ativos de forma consistente e rastreável entre ambientes como Desenvolvimento (Dev), Testes (Test) e Produção (Prod).&lt;/p&gt;
+  &lt;p&gt;Esta técnica formaliza a automação do versionamento, testes e deploy de componentes da plataforma de dados, utilizando fluxos de trabalho baseados em Git e pipelines de integração. Garante padrões de validação, rollback, controlo de permissões e governança durante todo o ciclo de vida de entrega.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Inclui controlo de versão para:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Notebooks&lt;/li&gt;
+    &lt;li&gt;Pipelines&lt;/li&gt;
+    &lt;li&gt;Dataflows&lt;/li&gt;
+    &lt;li&gt;Modelos Semânticos (Semantic Models)&lt;/li&gt;
+    &lt;li&gt;Definições de Esquemas de Lakehouse&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Integração com:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;GitHub Actions (ou Azure DevOps Pipelines)&lt;/li&gt;
+    &lt;li&gt;APIs de Espaços de Trabalho (Workspace APIs)&lt;/li&gt;
+    &lt;li&gt;Empacotamento e Promoção de Artefactos (Artifact Packaging and Promotion)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Etapas de validação:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Linting de código&lt;/li&gt;
+    &lt;li&gt;Testes de pipelines (ex: execuções simuladas — “dry runs”)&lt;/li&gt;
+    &lt;li&gt;Validações de deployment&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Ambientes de destino:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Promoção entre ambientes Dev / Test / Prod&lt;/li&gt;
+    &lt;li&gt;Aplicação de papéis e permissões no momento do deployment&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Gestão de Ciclo de Vida com Versionamento e Automação (Versioned and Automated Lifecycle Management for Platform Workloads)&lt;/li&gt;
+    &lt;li&gt;Gestão de Artefactos do Fabric entre Ambientes (Lifecycle Management for Bundled Fabric Artifacts Across Environments)&lt;/li&gt;
+    &lt;li&gt;Padrões de Pipeline como Código (Pipeline-as-Code Patterns)&lt;/li&gt;
+    &lt;li&gt;Modelos de Operações Delegadas (Delegated Operations Models)&lt;/li&gt;
+    &lt;li&gt;Ciclo de Vida de Desenvolvimento de Notebooks (Notebook Development Lifecycle)&lt;/li&gt;
+    &lt;li&gt;Ferramentas de CI/CD (GitHub Actions / CI/CD Tools)&lt;/li&gt;
+    &lt;li&gt;Modelos Semânticos, Pipelines, Lakehouses e Conjuntos de Dados (Datasets)&lt;/li&gt;
+  &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlo de Acesso Granular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Controlo de Acesso Granular (Fine-Grained Access Control)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Segurança e Governança&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Prática de atribuir permissões detalhadas a itens específicos da plataforma de dados, tais como conjuntos de dados, relatórios, notebooks ou pipelines. Este controlo complementa os papéis atribuídos ao nível do workspace, permitindo uma gestão mais precisa de recursos sensíveis ou partilhados.&lt;/p&gt;
+  &lt;p&gt;Permite uma gestão granular de permissões além dos papéis atribuídos ao nível do workspace, oferecendo maior flexibilidade e segurança.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Aplica-se a:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Itens do Power BI e do Microsoft Fabric (ex: relatórios, conjuntos de dados, lakehouses, notebooks)&lt;/li&gt;
+    &lt;li&gt;Artefactos do Synapse (ex: pipelines, notebooks)&lt;/li&gt;
+    &lt;li&gt;Outras plataformas como Azure Machine Learning (Azure ML), Microsoft Purview e Databricks&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Tipicamente associado a grupos do Azure Active Directory (AAD), identidades geridas (Managed Identities) ou permissões ao nível de utilizador.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/fabric/security/permission-model"&gt;Permissões de Itens no Microsoft Fabric&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Estratégia de "Schema-on-Read" para Conceção e Governação de Esquemas em Lakehouse Abertos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Estratégia de "Schema-on-Read" para Conceção e Governação de Esquemas em Lakehouse Abertos (Schema-on-Read Strategy for Open Lakehouse Schema Design and Governance)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Abordagem flexível de leitura de esquema em tempo de execução ("schema-on-read"), centrada em formatos abertos como &lt;strong&gt;Parquet&lt;/strong&gt; e &lt;strong&gt;Delta Lake&lt;/strong&gt;, que permite uma modelação tardia (late-binding) e favorece a agilidade e a escalabilidade em ambientes de dados distribuídos.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Esta técnica promove uma conceção de esquema orientada à leitura e posterior à ingestão, alinhada com arquiteturas de lakehouse abertas. Em vez de impor uma estrutura rígida no momento de ingestão, os dados são armazenados em formatos otimizados e a estrutura é aplicada apenas no momento de leitura ou transformação.&lt;/p&gt;
+  &lt;p&gt;Adota o uso de formatos abertos, como &lt;strong&gt;Parquet&lt;/strong&gt; e &lt;strong&gt;Delta Lake&lt;/strong&gt;, em serviços como &lt;strong&gt;Azure Data Lake Storage Gen2 (ADLS Gen2)&lt;/strong&gt;, &lt;strong&gt;Microsoft Fabric Lakehouse&lt;/strong&gt; ou &lt;strong&gt;Azure Synapse Lake Database&lt;/strong&gt;. Suporta a evolução de esquemas ao longo do tempo, armazenamento colunar com particionamento lógico e governança centrada em metadados.&lt;/p&gt;
+  &lt;p&gt;Esta abordagem facilita:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Gestão de esquemas evolutivos e tolerância a alterações de estrutura&lt;/li&gt;
+    &lt;li&gt;Aplicação de políticas de governação e validação no momento da leitura&lt;/li&gt;
+    &lt;li&gt;Separação entre armazenamento físico e estrutura lógica&lt;/li&gt;
+    &lt;li&gt;Integração com motores de execução como &lt;strong&gt;Apache Spark&lt;/strong&gt; (via &lt;strong&gt;PySpark&lt;/strong&gt; ou &lt;strong&gt;Spark SQL&lt;/strong&gt;)&lt;/li&gt;
+    &lt;li&gt;Modelação de zonas de dados (Raw/Bronze, Silver, Gold) com camadas esquematizadas logicamente&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Exemplos de aplicação:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Leitura de ficheiros &lt;code&gt;Parquet&lt;/code&gt; ou &lt;code&gt;Delta&lt;/code&gt; a partir de &lt;strong&gt;ADLS Gen2&lt;/strong&gt; por motores Spark&lt;/li&gt;
+    &lt;li&gt;Utilização de &lt;strong&gt;Lakehouse no Microsoft Fabric&lt;/strong&gt; com esquemas definidos apenas em camadas refinadas&lt;/li&gt;
+    &lt;li&gt;Conceção de modelos de dados analíticos escaláveis sem necessidade de pré-ingestão estruturada&lt;/li&gt;
+  &lt;/ul&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Rastreabilidade e Visualização de Linhagem de Dados (Data Lineage)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Prática de rastreamento visual ou programático das dependências entre dados, permitindo compreender como os dados fluem entre diferentes artefactos e componentes de uma plataforma moderna de dados — incluindo pipelines, notebooks, conjuntos de dados, modelos semânticos e relatórios.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A linhagem de dados (Data Lineage) capta as relações e dependências entre objetos em plataformas como o &lt;strong&gt;Microsoft Fabric&lt;/strong&gt;, possibilitando análise de impacto, governação, auditoria e confiança nos fluxos de dados. Ajuda a documentar caminhos de transformação de dados e é essencial para diagnósticos operacionais e rastreabilidade.&lt;/p&gt;
+  &lt;p&gt;Relações captadas entre:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Dataflows (fluxos de dados)&lt;/li&gt;
+    &lt;li&gt;Pipelines&lt;/li&gt;
+    &lt;li&gt;Notebooks&lt;/li&gt;
+    &lt;li&gt;Lakehouses e Armazéns de Dados (Warehouses)&lt;/li&gt;
+    &lt;li&gt;Relatórios e Modelos Semânticos (Semantic Models)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Casos de uso principais:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;&lt;strong&gt;Análise de Impacto:&lt;/strong&gt; identificar o que será afetado se uma fonte de dados for alterada&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Confiança e Auditoria:&lt;/strong&gt; demonstrar origem e transformação dos dados&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Documentação e Governação:&lt;/strong&gt; mapear dependências e promover transparência&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Depuração Operacional:&lt;/strong&gt; ajudar a diagnosticar problemas em fluxos de dados&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://docs.open-metadata.org/latest/how-to-guides/data-lineage/explore" target="_blank"&gt;Lineage View — Open Metadata Docs&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Rastreabilidade e Visualização de Linhagem de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Modelo Semântico de Dados (Semantic Model of Data)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Prática de construção de abstrações de dados reutilizáveis e governadas, que expõem métricas de negócio e lógica analítica sobre dados brutos ou curados. São fundamentais para plataformas como o &lt;strong&gt;Power BI&lt;/strong&gt; e o &lt;strong&gt;Microsoft Fabric&lt;/strong&gt;, permitindo a democratização da análise de dados através do autosserviço com governação.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Os modelos semânticos situam-se entre os dados (lakehouse, warehouse) e os consumos analíticos (relatórios, dashboards), permitindo a definição estruturada de métricas, relações e regras de negócio. Suportam segurança a nível de linha, visibilidade baseada em funções e reutilização entre domínios.&lt;/p&gt;
+  &lt;p&gt;Construído através de:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Conjuntos de dados do Power BI&lt;/li&gt;
+    &lt;li&gt;Modelos semânticos do Microsoft Fabric&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Permite definir:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Medições, Indicadores-Chave de Desempenho (KPIs), colunas calculadas&lt;/li&gt;
+    &lt;li&gt;Relacionamentos entre tabelas&lt;/li&gt;
+    &lt;li&gt;Metadados (descrições, etiquetas, formatação)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Estabelece os modelos semânticos como artefactos padronizados, reutilizáveis e governados no contexto de produtos de dados. Suporta:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Propriedade federada por domínio&lt;/li&gt;
+    &lt;li&gt;Consistência de métricas&lt;/li&gt;
+    &lt;li&gt;Análises seguras e com autosserviço&lt;/li&gt;
+    &lt;li&gt;Promoção entre ambientes via CI/CD&lt;/li&gt;
+    &lt;li&gt;Relatórios automatizados e reutilizáveis&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Reflexo de um modelo semântico como:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;&lt;strong&gt;Saída formal de um produto de dados:&lt;/strong&gt; rastreável, reutilizável, padronizado&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Superfície de governação:&lt;/strong&gt; versionado, validado, com controlo de permissões&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Camada de integração entre domínios:&lt;/strong&gt; partilha de definições com governação federada&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Norma para métricas:&lt;/strong&gt; assegura consistência e linhagem de KPIs&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Artefacto pronto para API:&lt;/strong&gt; consumo por Power BI, Excel, ferramentas externas ou cenários de BI headless&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Modelos Semânticos (Capacidade da Plataforma)&lt;/li&gt;
+    &lt;li&gt;Exposição Governada via SQL Endpoints&lt;/li&gt;
+    &lt;li&gt;Permissões a Nível de Item&lt;/li&gt;
+    &lt;li&gt;Proteção de Dados orientada por Políticas&lt;/li&gt;
+    &lt;li&gt;Governação do Ciclo de Vida para Artefactos do Fabric&lt;/li&gt;
+    &lt;li&gt;Modelos de Operações Delegadas&lt;/li&gt;
+    &lt;li&gt;Visualização de Linhagem e Governação de Métricas (futuro)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Semantic_data_model" target="_blank"&gt;Semantic Models — Wikipedia&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Modelação Semântica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Classificação de Dados (Data Classification)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Mecanismo de governação que aplica etiquetas persistentes (labels) aos artefactos de dados — como conjuntos de dados, relatórios e notebooks — com o objetivo de categorizar a sensibilidade e criticidade das informações. Estas classificações são fundamentais para desencadear políticas de proteção, como a Prevenção de Perda de Dados (Data Loss Prevention, DLP), restrições de acesso e mecanismos de auditoria e conformidade.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A Classificação de Dados no Microsoft Fabric e Power BI permite aplicar &lt;strong&gt;etiquetas de sensibilidade&lt;/strong&gt; (sensitivity labels) de forma persistente, o que viabiliza o controlo de acesso e a rastreabilidade ao longo de toda a cadeia de dados analíticos. Estas etiquetas podem ser definidas manualmente ou herdadas automaticamente com base em regras organizacionais.&lt;/p&gt;
+  &lt;p&gt;Aplica-se a:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Conjuntos de dados (datasets)&lt;/li&gt;
+    &lt;li&gt;Relatórios (reports)&lt;/li&gt;
+    &lt;li&gt;Notebooks e pipelines&lt;/li&gt;
+    &lt;li&gt;Modelos semânticos&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Permite:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Aplicação de políticas de Prevenção de Perda de Dados (DLP)&lt;/li&gt;
+    &lt;li&gt;Bloqueio ou limitação de partilhas/exportações&lt;/li&gt;
+    &lt;li&gt;Monitorização e rastreio de acessos e alterações&lt;/li&gt;
+    &lt;li&gt;Hereditariedade automática de classificações ao longo dos artefactos&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Funciona como um componente central na estratégia de proteção e conformidade de dados em ambientes de dados empresariais modernos, permitindo governação federada com regras corporativas consistentes.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/purview/sensitivity-labels" target="_blank"&gt;Etiquetas de Sensibilidade — Microsoft Purview&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Classificação de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Rastreabilidade e Visualização de Linhagem de Dados (Data Lineage)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Prática de rastreamento visual ou programático das dependências entre dados, permitindo compreender como os dados fluem entre diferentes artefactos e componentes de uma plataforma moderna de dados — incluindo pipelines, notebooks, conjuntos de dados, modelos semânticos e relatórios.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A linhagem de dados (Data Lineage) capta as relações e dependências entre objetos em plataformas como o &lt;strong&gt;Microsoft Fabric&lt;/strong&gt;, possibilitando análise de impacto, governação, auditoria e confiança nos fluxos de dados. Ajuda a documentar caminhos de transformação de dados e é essencial para diagnósticos operacionais e rastreabilidade.&lt;/p&gt;
+  &lt;p&gt;Relações captadas entre:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Dataflows (fluxos de dados)&lt;/li&gt;
+    &lt;li&gt;Pipelines&lt;/li&gt;
+    &lt;li&gt;Notebooks&lt;/li&gt;
+    &lt;li&gt;Lakehouses e Armazéns de Dados (Warehouses)&lt;/li&gt;
+    &lt;li&gt;Relatórios e Modelos Semânticos (Semantic Models)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Casos de uso principais:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;&lt;strong&gt;Análise de Impacto:&lt;/strong&gt; identificar o que será afetado se uma fonte de dados for alterada&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Confiança e Auditoria:&lt;/strong&gt; demonstrar origem e transformação dos dados&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Documentação e Governação:&lt;/strong&gt; mapear dependências e promover transparência&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Depuração Operacional:&lt;/strong&gt; ajudar a diagnosticar problemas em fluxos de dados&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://docs.open-metadata.org/latest/how-to-guides/data-lineage/explore" target="_blank"&gt;Lineage View — Open Metadata Docs&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Modelo Semântico de Dados (Semantic Model of Data)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Prática de construção de abstrações de dados reutilizáveis e governadas, que expõem métricas de negócio e lógica analítica sobre dados brutos ou curados. São fundamentais para plataformas como o &lt;strong&gt;Power BI&lt;/strong&gt; e o &lt;strong&gt;Microsoft Fabric&lt;/strong&gt;, permitindo a democratização da análise de dados através do autosserviço com governação.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Os modelos semânticos situam-se entre os dados (lakehouse, warehouse) e os consumos analíticos (relatórios, dashboards), permitindo a definição estruturada de métricas, relações e regras de negócio. Suportam segurança a nível de linha, visibilidade baseada em funções e reutilização entre domínios.&lt;/p&gt;
+  &lt;p&gt;Construído através de:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Conjuntos de dados do Power BI&lt;/li&gt;
+    &lt;li&gt;Modelos semânticos do Microsoft Fabric&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Permite definir:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Medições, Indicadores-Chave de Desempenho (KPIs), colunas calculadas&lt;/li&gt;
+    &lt;li&gt;Relacionamentos entre tabelas&lt;/li&gt;
+    &lt;li&gt;Metadados (descrições, etiquetas, formatação)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Estabelece os modelos semânticos como artefactos padronizados, reutilizáveis e governados no contexto de produtos de dados. Suporta:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Propriedade federada por domínio&lt;/li&gt;
+    &lt;li&gt;Consistência de métricas&lt;/li&gt;
+    &lt;li&gt;Análises seguras e com autosserviço&lt;/li&gt;
+    &lt;li&gt;Promoção entre ambientes via CI/CD&lt;/li&gt;
+    &lt;li&gt;Relatórios automatizados e reutilizáveis&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Reflexo de um modelo semântico como:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;&lt;strong&gt;Saída formal de um produto de dados:&lt;/strong&gt; rastreável, reutilizável, padronizado&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Superfície de governação:&lt;/strong&gt; versionado, validado, com controlo de permissões&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Camada de integração entre domínios:&lt;/strong&gt; partilha de definições com governação federada&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Norma para métricas:&lt;/strong&gt; assegura consistência e linhagem de KPIs&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Artefacto pronto para API:&lt;/strong&gt; consumo por Power BI, Excel, ferramentas externas ou cenários de BI headless&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Modelos Semânticos (Capacidade da Plataforma)&lt;/li&gt;
+    &lt;li&gt;Exposição Governada via SQL Endpoints&lt;/li&gt;
+    &lt;li&gt;Permissões a Nível de Item&lt;/li&gt;
+    &lt;li&gt;Proteção de Dados orientada por Políticas&lt;/li&gt;
+    &lt;li&gt;Governação do Ciclo de Vida para Artefactos do Fabric&lt;/li&gt;
+    &lt;li&gt;Modelos de Operações Delegadas&lt;/li&gt;
+    &lt;li&gt;Visualização de Linhagem e Governação de Métricas (futuro)&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Semantic_data_model" target="_blank"&gt;Semantic Models — Wikipedia&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Classificação de Dados (Data Classification)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Mecanismo de governação que aplica etiquetas persistentes (labels) aos artefactos de dados — como conjuntos de dados, relatórios e notebooks — com o objetivo de categorizar a sensibilidade e criticidade das informações. Estas classificações são fundamentais para desencadear políticas de proteção, como a Prevenção de Perda de Dados (Data Loss Prevention, DLP), restrições de acesso e mecanismos de auditoria e conformidade.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A Classificação de Dados no Microsoft Fabric e Power BI permite aplicar &lt;strong&gt;etiquetas de sensibilidade&lt;/strong&gt; (sensitivity labels) de forma persistente, o que viabiliza o controlo de acesso e a rastreabilidade ao longo de toda a cadeia de dados analíticos. Estas etiquetas podem ser definidas manualmente ou herdadas automaticamente com base em regras organizacionais.&lt;/p&gt;
+  &lt;p&gt;Aplica-se a:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Conjuntos de dados (datasets)&lt;/li&gt;
+    &lt;li&gt;Relatórios (reports)&lt;/li&gt;
+    &lt;li&gt;Notebooks e pipelines&lt;/li&gt;
+    &lt;li&gt;Modelos semânticos&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Permite:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Aplicação de políticas de Prevenção de Perda de Dados (DLP)&lt;/li&gt;
+    &lt;li&gt;Bloqueio ou limitação de partilhas/exportações&lt;/li&gt;
+    &lt;li&gt;Monitorização e rastreio de acessos e alterações&lt;/li&gt;
+    &lt;li&gt;Hereditariedade automática de classificações ao longo dos artefactos&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Funciona como um componente central na estratégia de proteção e conformidade de dados em ambientes de dados empresariais modernos, permitindo governação federada com regras corporativas consistentes.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/purview/sensitivity-labels" target="_blank"&gt;Etiquetas de Sensibilidade — Microsoft Purview&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Controlo de Acesso Baseado em Funções de Workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h3&gt;Controlo de Acesso Baseado em Funções de Workspace (Workspace Role-Based Access Control)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;Modelo de controlo de acesso em que permissões são atribuídas com base em papéis predefinidos (roles) no nível do espaço de trabalho (workspace). Este padrão é amplamente adotado em plataformas como Microsoft Fabric, Power BI, Azure Synapse, Databricks e Azure ML.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;O controlo de acesso baseado em funções de workspace permite a gestão centralizada de permissões em ambientes colaborativos. Cada função determina o que os utilizadores podem ver, editar, publicar ou partilhar dentro de um workspace. Esta abordagem facilita a aplicação de políticas de segurança consistentes, suportando fluxos de trabalho colaborativos e protegendo dados críticos.&lt;/p&gt;
+  &lt;p&gt;Aplica-se a:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Microsoft Fabric workspaces&lt;/li&gt;
+    &lt;li&gt;Power BI workspaces&lt;/li&gt;
+    &lt;li&gt;Azure Synapse Analytics workspaces&lt;/li&gt;
+    &lt;li&gt;Databricks e Azure Machine Learning&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Permissões comuns incluem:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Criação, edição e gestão de artefactos (ex: notebooks, pipelines, relatórios)&lt;/li&gt;
+    &lt;li&gt;Partilha de conteúdo com outros utilizadores&lt;/li&gt;
+    &lt;li&gt;Execução de pipelines e atualizações de datasets&lt;/li&gt;
+    &lt;li&gt;Controlo de publicação e distribuição de modelos analíticos&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Complementa práticas como o controlo de acessos de baixa granularidade (fine-grained access control), políticas de identidade e etiquetas de sensibilidade. Em ambientes com múltiplos domínios, pode ser integrado em modelos de governação federada.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/fabric/fundamentals/roles-workspaces" target="_blank"&gt;Microsoft Fabric Workspace Roles&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 class="cmp-blip-heading"&gt;Proteção de Dados e Conformidade Orientadas por Políticas para Produtos de Dados&lt;/h4&gt;
+&lt;p&gt;&lt;strong&gt;Segurança e Conformidade (Security &amp; Compliance)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A proteção de dados e a aplicação de controlos e regras de conformidade orientadas por políticas é crucial para a proteção dos dados e manutenção de padrões legais. As abordagens envolvem a definição de políticas claras que regulam o tratamento, a segurança e a privacidade dos dados, e a implementação de mecanismos para garantir que essas políticas sejam seguidas de forma consistente em todos os produtos de dados disponibilizados.&lt;/p&gt;
+&lt;p&gt;Mecanismo de governação de segurança concebido para detetar e restringir a partilha ou movimentação de dados sensíveis dentro dos artefactos do Microsoft Fabric (ex: lakehouses, conjuntos de dados, relatórios). Integra-se com o motor de Políticas de Prevenção de Perda de Dados (Data Loss Prevention, DLP) do Microsoft Purview e com o Centro de Conformidade.&lt;/p&gt;
+&lt;p&gt;Estabelece o uso de etiquetas de sensibilidade, classificação automática e políticas DLP para aplicar controlos de acesso e garantir conformidade em toda a cadeia de dados — incluindo conjuntos de dados, relatórios, lakehouses e modelos semânticos. Permite uma governação federada com controlos centrais ("guardrails"), bloqueio de exportações e fluxos de auditoria.&lt;/p&gt;
+&lt;p&gt;Suporta herança de políticas, integração com ferramentas de catalogação (ex: Microsoft Purview) e alinha-se com estratégias de entrega segura de produtos de dados.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Políticas de Prevenção de Perda de Dados (Data Loss Prevention Policies)&lt;/li&gt;
+  &lt;li&gt;Governação Unificada de Acessos Baseada em Funções (Unified Role-Based Access Governance)&lt;/li&gt;
+  &lt;li&gt;Permissões a Nível de Item (Item-Level Permissions)&lt;/li&gt;
+  &lt;li&gt;Governação Federada de Identidades (Federated Identity Governance)&lt;/li&gt;
+  &lt;li&gt;Políticas de Governação Padrão &lt;strong&gt;(futuro)&lt;/strong&gt; (Governance Default Policies)&lt;/li&gt;
+  &lt;li&gt;Visualização de Linhagem (Lineage View)&lt;/li&gt;
+  &lt;li&gt;Microsoft Purview (ferramenta de catalogação e conformidade)&lt;/li&gt;
+  &lt;li&gt;Modelos Semânticos, Relatórios e Conjuntos de Dados do Fabric&lt;/li&gt;
+&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -5758,7 +6115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6030,9 +6387,18 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
@@ -6532,13 +6898,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -6549,6 +6908,13 @@
         <top style="medium">
           <color auto="1"/>
         </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
@@ -6601,13 +6967,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -6618,6 +6977,13 @@
         <top style="medium">
           <color auto="1"/>
         </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
@@ -6670,13 +7036,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -6687,6 +7046,13 @@
         <top style="medium">
           <color auto="1"/>
         </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
@@ -6739,13 +7105,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -6756,6 +7115,13 @@
         <top style="medium">
           <color auto="1"/>
         </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
@@ -6830,13 +7196,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -6847,6 +7206,13 @@
         <top style="medium">
           <color auto="1"/>
         </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
@@ -7275,6 +7641,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54C4A1DC-D6BA-4B1A-BEFD-5D24D2E6298E}" name="Table17" displayName="Table17" ref="A1:J14" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:J14" xr:uid="{04A550D9-EC2E-44A1-B545-CB697A89DE09}"/>
@@ -7314,7 +7684,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2DAC4A8-DE82-4948-ADB5-9D1DC5FAFB60}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2DAC4A8-DE82-4948-ADB5-9D1DC5FAFB60}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:J4" xr:uid="{D2DAC4A8-DE82-4948-ADB5-9D1DC5FAFB60}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{4154F35C-A744-4858-9D7B-1CBA87B65D8E}" name="id"/>
@@ -7333,7 +7703,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF7073E3-2812-46CB-864C-7AD328DE1582}" name="Table3" displayName="Table3" ref="A1:J24" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF7073E3-2812-46CB-864C-7AD328DE1582}" name="Table3" displayName="Table3" ref="A1:J24" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:J24" xr:uid="{FF7073E3-2812-46CB-864C-7AD328DE1582}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{97F638F5-751E-4881-9CE0-07D8CB6B2A35}" name="id"/>
@@ -7352,7 +7722,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5A92C0D9-4C37-4FE8-B61A-430BF44A2CF1}" name="Table39" displayName="Table39" ref="A1:J12" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5A92C0D9-4C37-4FE8-B61A-430BF44A2CF1}" name="Table39" displayName="Table39" ref="A1:J12" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:J12" xr:uid="{FF7073E3-2812-46CB-864C-7AD328DE1582}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{2ADFF487-A5AB-4DBE-863B-1FE21E950F59}" name="id"/>
@@ -7371,7 +7741,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E1D09C2D-D0B6-46B8-8DDA-142C83C5C250}" name="Table410" displayName="Table410" ref="A1:J38" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E1D09C2D-D0B6-46B8-8DDA-142C83C5C250}" name="Table410" displayName="Table410" ref="A1:J38" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:J38" xr:uid="{FE94A8AF-7E4F-47D9-AD76-AD2509DEA0D1}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{9194781E-A74E-4FA0-90CD-3E5E13066490}" name="id"/>
@@ -7390,7 +7760,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE94A8AF-7E4F-47D9-AD76-AD2509DEA0D1}" name="Table4" displayName="Table4" ref="A1:J39" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE94A8AF-7E4F-47D9-AD76-AD2509DEA0D1}" name="Table4" displayName="Table4" ref="A1:J39" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:J39" xr:uid="{FE94A8AF-7E4F-47D9-AD76-AD2509DEA0D1}"/>
   <tableColumns count="10">
     <tableColumn id="9" xr3:uid="{14BC4A2F-05E4-4EF6-AB08-AF688FDB2758}" name="id"/>
@@ -7644,21 +8014,21 @@
       <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="54.7265625" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7690,7 +8060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="102.75" thickBot="1">
+    <row r="2" spans="1:10" ht="100.5" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
@@ -7722,7 +8092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" thickBot="1">
+    <row r="3" spans="1:10" ht="88" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
@@ -7754,7 +8124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39" thickBot="1">
+    <row r="4" spans="1:10" ht="38" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>25</v>
       </c>
@@ -7786,7 +8156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="77.25" thickBot="1">
+    <row r="5" spans="1:10" ht="75.5" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>28</v>
       </c>
@@ -7818,7 +8188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5" thickBot="1">
+    <row r="6" spans="1:10" ht="100.5" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>31</v>
       </c>
@@ -7850,7 +8220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="102.75" thickBot="1">
+    <row r="7" spans="1:10" ht="88" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
@@ -7882,7 +8252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="179.25" thickBot="1">
+    <row r="8" spans="1:10" ht="150.5" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>38</v>
       </c>
@@ -7914,7 +8284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="115.5" thickBot="1">
+    <row r="9" spans="1:10" ht="113" thickBot="1">
       <c r="A9" s="40" t="s">
         <v>41</v>
       </c>
@@ -7946,7 +8316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64.5" thickBot="1">
+    <row r="10" spans="1:10" ht="63" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>47</v>
       </c>
@@ -7978,7 +8348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="102.75" thickBot="1">
+    <row r="11" spans="1:10" ht="100.5" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>52</v>
       </c>
@@ -8010,7 +8380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="77.25" thickBot="1">
+    <row r="12" spans="1:10" ht="63" thickBot="1">
       <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
@@ -8042,7 +8412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="77.25" thickBot="1">
+    <row r="13" spans="1:10" ht="63" thickBot="1">
       <c r="A13" s="40" t="s">
         <v>58</v>
       </c>
@@ -8074,7 +8444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="90" thickBot="1">
+    <row r="14" spans="1:10" ht="88" thickBot="1">
       <c r="A14" s="91" t="s">
         <v>60</v>
       </c>
@@ -8122,19 +8492,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDA3523-F4E3-4C24-84C7-C45A228B5EE0}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="74.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8164,7 +8534,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="69">
+    <row r="2" spans="1:8" ht="75">
       <c r="A2" s="40" t="s">
         <v>13</v>
       </c>
@@ -8190,7 +8560,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="69">
+    <row r="3" spans="1:8" ht="75">
       <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
@@ -8216,7 +8586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25">
+    <row r="4" spans="1:8" ht="25">
       <c r="A4" s="70" t="s">
         <v>26</v>
       </c>
@@ -8242,7 +8612,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="58.5">
+    <row r="5" spans="1:8" ht="62.5">
       <c r="A5" s="70" t="s">
         <v>29</v>
       </c>
@@ -8268,7 +8638,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="58.5">
+    <row r="6" spans="1:8" ht="62.5">
       <c r="A6" s="70" t="s">
         <v>32</v>
       </c>
@@ -8294,7 +8664,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="69">
+    <row r="7" spans="1:8" ht="75">
       <c r="A7" s="70" t="s">
         <v>36</v>
       </c>
@@ -8320,7 +8690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="104.25">
+    <row r="8" spans="1:8" ht="112.5">
       <c r="A8" s="70" t="s">
         <v>39</v>
       </c>
@@ -8346,7 +8716,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="69">
+    <row r="9" spans="1:8" ht="75">
       <c r="A9" s="70" t="s">
         <v>44</v>
       </c>
@@ -8372,7 +8742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.5">
+    <row r="10" spans="1:8" ht="50">
       <c r="A10" s="70" t="s">
         <v>48</v>
       </c>
@@ -8658,7 +9028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25">
+    <row r="21" spans="1:8" ht="25">
       <c r="A21" s="80" t="s">
         <v>96</v>
       </c>
@@ -8684,7 +9054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="23.25">
+    <row r="22" spans="1:8" ht="25">
       <c r="A22" s="80" t="s">
         <v>100</v>
       </c>
@@ -8710,7 +9080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="150.75">
+    <row r="23" spans="1:8" ht="162.5">
       <c r="A23" s="70" t="s">
         <v>103</v>
       </c>
@@ -8736,7 +9106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="185.25">
+    <row r="24" spans="1:8" ht="200">
       <c r="A24" s="70" t="s">
         <v>107</v>
       </c>
@@ -8762,7 +9132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="196.5">
+    <row r="25" spans="1:8" ht="212.5">
       <c r="A25" s="70" t="s">
         <v>110</v>
       </c>
@@ -8788,7 +9158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="92.25">
+    <row r="26" spans="1:8" ht="100">
       <c r="A26" s="70" t="s">
         <v>114</v>
       </c>
@@ -8814,7 +9184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="92.25">
+    <row r="27" spans="1:8" ht="100">
       <c r="A27" s="70" t="s">
         <v>117</v>
       </c>
@@ -8840,7 +9210,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="92.25">
+    <row r="28" spans="1:8" ht="100">
       <c r="A28" s="70" t="s">
         <v>121</v>
       </c>
@@ -8866,7 +9236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="104.25">
+    <row r="29" spans="1:8" ht="112.5">
       <c r="A29" s="70" t="s">
         <v>124</v>
       </c>
@@ -8892,7 +9262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="35.25">
+    <row r="30" spans="1:8" ht="37.5">
       <c r="A30" s="70" t="s">
         <v>127</v>
       </c>
@@ -8918,7 +9288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="207.75">
+    <row r="31" spans="1:8" ht="225">
       <c r="A31" s="70" t="s">
         <v>130</v>
       </c>
@@ -8944,7 +9314,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="35.25">
+    <row r="32" spans="1:8" ht="37.5">
       <c r="A32" s="70" t="s">
         <v>134</v>
       </c>
@@ -8970,7 +9340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="35.25">
+    <row r="33" spans="1:8" ht="37.5">
       <c r="A33" s="70" t="s">
         <v>137</v>
       </c>
@@ -8996,7 +9366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="150.75">
+    <row r="34" spans="1:8" ht="162.5">
       <c r="A34" s="70" t="s">
         <v>140</v>
       </c>
@@ -9022,7 +9392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="196.5">
+    <row r="35" spans="1:8" ht="212.5">
       <c r="A35" s="70" t="s">
         <v>143</v>
       </c>
@@ -9048,7 +9418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="35.25">
+    <row r="36" spans="1:8" ht="37.5">
       <c r="A36" s="70" t="s">
         <v>146</v>
       </c>
@@ -9074,7 +9444,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="81">
+    <row r="37" spans="1:8" ht="87.5">
       <c r="A37" s="70" t="s">
         <v>149</v>
       </c>
@@ -9100,7 +9470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="35.25">
+    <row r="38" spans="1:8" ht="37.5">
       <c r="A38" s="70" t="s">
         <v>152</v>
       </c>
@@ -9126,7 +9496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="69">
+    <row r="39" spans="1:8" ht="75">
       <c r="A39" s="70" t="s">
         <v>156</v>
       </c>
@@ -9152,7 +9522,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="138.75">
+    <row r="40" spans="1:8" ht="150">
       <c r="A40" s="70" t="s">
         <v>161</v>
       </c>
@@ -9178,7 +9548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="35.25">
+    <row r="41" spans="1:8" ht="37.5">
       <c r="A41" s="91" t="s">
         <v>164</v>
       </c>
@@ -9204,7 +9574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="35.25">
+    <row r="42" spans="1:8" ht="37.5">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -9230,7 +9600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="58.5">
+    <row r="43" spans="1:8" ht="62.5">
       <c r="A43" s="70" t="s">
         <v>179</v>
       </c>
@@ -9256,7 +9626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="35.25">
+    <row r="44" spans="1:8" ht="37.5">
       <c r="A44" s="70" t="s">
         <v>183</v>
       </c>
@@ -9282,7 +9652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="127.5">
+    <row r="45" spans="1:8" ht="137.5">
       <c r="A45" s="70" t="s">
         <v>186</v>
       </c>
@@ -9308,7 +9678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="196.5">
+    <row r="46" spans="1:8" ht="212.5">
       <c r="A46" s="70" t="s">
         <v>190</v>
       </c>
@@ -9334,7 +9704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="185.25">
+    <row r="47" spans="1:8" ht="200">
       <c r="A47" s="70" t="s">
         <v>194</v>
       </c>
@@ -9360,7 +9730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="115.5">
+    <row r="48" spans="1:8" ht="125">
       <c r="A48" s="70" t="s">
         <v>197</v>
       </c>
@@ -9386,7 +9756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="162">
+    <row r="49" spans="1:8" ht="175">
       <c r="A49" s="70" t="s">
         <v>200</v>
       </c>
@@ -9412,7 +9782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="138.75">
+    <row r="50" spans="1:8" ht="150">
       <c r="A50" s="70" t="s">
         <v>203</v>
       </c>
@@ -9438,7 +9808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="23.25">
+    <row r="51" spans="1:8" ht="25">
       <c r="A51" s="70" t="s">
         <v>206</v>
       </c>
@@ -9464,7 +9834,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="104.25">
+    <row r="52" spans="1:8" ht="112.5">
       <c r="A52" s="70" t="s">
         <v>209</v>
       </c>
@@ -9490,7 +9860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="150.75">
+    <row r="53" spans="1:8" ht="162.5">
       <c r="A53" s="70" t="s">
         <v>212</v>
       </c>
@@ -9516,7 +9886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="23.25">
+    <row r="54" spans="1:8" ht="25">
       <c r="A54" s="70" t="s">
         <v>215</v>
       </c>
@@ -9542,7 +9912,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="23.25">
+    <row r="55" spans="1:8" ht="25">
       <c r="A55" s="70" t="s">
         <v>218</v>
       </c>
@@ -9568,7 +9938,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="58.5">
+    <row r="56" spans="1:8" ht="62.5">
       <c r="A56" s="70" t="s">
         <v>221</v>
       </c>
@@ -9594,7 +9964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="162">
+    <row r="57" spans="1:8" ht="175">
       <c r="A57" s="70" t="s">
         <v>224</v>
       </c>
@@ -9620,7 +9990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="174">
+    <row r="58" spans="1:8" ht="187.5">
       <c r="A58" s="70" t="s">
         <v>227</v>
       </c>
@@ -9646,7 +10016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="115.5">
+    <row r="59" spans="1:8" ht="125">
       <c r="A59" s="70" t="s">
         <v>155</v>
       </c>
@@ -9672,7 +10042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="81">
+    <row r="60" spans="1:8" ht="87.5">
       <c r="A60" s="80" t="s">
         <v>232</v>
       </c>
@@ -9698,7 +10068,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="46.5">
+    <row r="61" spans="1:8" ht="50">
       <c r="A61" s="70" t="s">
         <v>235</v>
       </c>
@@ -9724,7 +10094,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="81">
+    <row r="62" spans="1:8" ht="87.5">
       <c r="A62" s="70" t="s">
         <v>238</v>
       </c>
@@ -9750,7 +10120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="81">
+    <row r="63" spans="1:8" ht="87.5">
       <c r="A63" s="70" t="s">
         <v>242</v>
       </c>
@@ -9776,7 +10146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="127.5">
+    <row r="64" spans="1:8" ht="138" thickBot="1">
       <c r="A64" s="70" t="s">
         <v>245</v>
       </c>
@@ -9802,9 +10172,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="243">
+    <row r="65" spans="1:8" ht="409.6" thickBot="1">
       <c r="A65" s="70" t="s">
-        <v>272</v>
+        <v>747</v>
       </c>
       <c r="B65" s="42" t="s">
         <v>49</v>
@@ -9818,8 +10188,8 @@
       <c r="E65" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="84" t="s">
-        <v>274</v>
+      <c r="F65" s="103" t="s">
+        <v>746</v>
       </c>
       <c r="G65" s="52" t="s">
         <v>275</v>
@@ -9828,9 +10198,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="115.5">
-      <c r="A66" s="70" t="s">
-        <v>277</v>
+    <row r="66" spans="1:8" ht="238" thickBot="1">
+      <c r="A66" s="105" t="s">
+        <v>749</v>
       </c>
       <c r="B66" s="86" t="s">
         <v>87</v>
@@ -9844,8 +10214,8 @@
       <c r="E66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>278</v>
+      <c r="F66" s="103" t="s">
+        <v>748</v>
       </c>
       <c r="G66" s="41" t="s">
         <v>279</v>
@@ -9854,9 +10224,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="409.6">
-      <c r="A67" s="70" t="s">
-        <v>281</v>
+    <row r="67" spans="1:8" ht="409.6" thickBot="1">
+      <c r="A67" s="105" t="s">
+        <v>750</v>
       </c>
       <c r="B67" s="68" t="s">
         <v>14</v>
@@ -9871,7 +10241,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>282</v>
+        <v>751</v>
       </c>
       <c r="G67" s="75" t="s">
         <v>283</v>
@@ -9880,9 +10250,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="127.5">
+    <row r="68" spans="1:8" ht="263" thickBot="1">
       <c r="A68" s="70" t="s">
-        <v>285</v>
+        <v>752</v>
       </c>
       <c r="B68" s="42" t="s">
         <v>49</v>
@@ -9897,7 +10267,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>286</v>
+        <v>753</v>
       </c>
       <c r="G68" s="75" t="s">
         <v>287</v>
@@ -9906,9 +10276,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="104.25">
-      <c r="A69" s="70" t="s">
-        <v>289</v>
+    <row r="69" spans="1:8" ht="409.6" thickBot="1">
+      <c r="A69" s="105" t="s">
+        <v>754</v>
       </c>
       <c r="B69" s="68" t="s">
         <v>14</v>
@@ -9923,7 +10293,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>290</v>
+        <v>755</v>
       </c>
       <c r="G69" s="75" t="s">
         <v>192</v>
@@ -9932,9 +10302,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="185.25">
+    <row r="70" spans="1:8" ht="409.6" thickBot="1">
       <c r="A70" s="70" t="s">
-        <v>292</v>
+        <v>757</v>
       </c>
       <c r="B70" s="86" t="s">
         <v>87</v>
@@ -9949,7 +10319,7 @@
         <v>23</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>293</v>
+        <v>756</v>
       </c>
       <c r="G70" s="75" t="s">
         <v>294</v>
@@ -9958,9 +10328,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="409.6">
-      <c r="A71" s="70" t="s">
-        <v>296</v>
+    <row r="71" spans="1:8" ht="409.6" thickBot="1">
+      <c r="A71" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="B71" s="68" t="s">
         <v>14</v>
@@ -9974,8 +10344,8 @@
       <c r="E71" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="84" t="s">
-        <v>297</v>
+      <c r="F71" s="103" t="s">
+        <v>758</v>
       </c>
       <c r="G71" s="75" t="s">
         <v>298</v>
@@ -9984,9 +10354,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="58.5">
-      <c r="A72" s="70" t="s">
-        <v>300</v>
+    <row r="72" spans="1:8" ht="409.6" thickBot="1">
+      <c r="A72" s="105" t="s">
+        <v>761</v>
       </c>
       <c r="B72" s="68" t="s">
         <v>14</v>
@@ -10001,7 +10371,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>301</v>
+        <v>760</v>
       </c>
       <c r="G72" s="75" t="s">
         <v>279</v>
@@ -10010,9 +10380,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="138.75">
-      <c r="A73" s="70" t="s">
-        <v>303</v>
+    <row r="73" spans="1:8" ht="409.6" thickBot="1">
+      <c r="A73" s="105" t="s">
+        <v>765</v>
       </c>
       <c r="B73" s="68" t="s">
         <v>14</v>
@@ -10026,8 +10396,8 @@
       <c r="E73" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="84" t="s">
-        <v>304</v>
+      <c r="F73" s="103" t="s">
+        <v>766</v>
       </c>
       <c r="G73" s="75" t="s">
         <v>287</v>
@@ -10036,7 +10406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="185.25">
+    <row r="74" spans="1:8" ht="25.5" thickBot="1">
       <c r="A74" s="85" t="s">
         <v>306</v>
       </c>
@@ -10052,9 +10422,7 @@
       <c r="E74" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="84" t="s">
-        <v>307</v>
-      </c>
+      <c r="F74" s="84"/>
       <c r="G74" s="41" t="s">
         <v>51</v>
       </c>
@@ -10062,7 +10430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="69">
+    <row r="75" spans="1:8" ht="75">
       <c r="A75" s="70" t="s">
         <v>309</v>
       </c>
@@ -10088,7 +10456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="35.25">
+    <row r="76" spans="1:8" ht="37.5">
       <c r="A76" s="70" t="s">
         <v>314</v>
       </c>
@@ -10114,7 +10482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="81">
+    <row r="77" spans="1:8" ht="87.5">
       <c r="A77" s="70" t="s">
         <v>318</v>
       </c>
@@ -10140,7 +10508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="69">
+    <row r="78" spans="1:8" ht="75">
       <c r="A78" s="70" t="s">
         <v>321</v>
       </c>
@@ -10166,7 +10534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="69">
+    <row r="79" spans="1:8" ht="87.5">
       <c r="A79" s="70" t="s">
         <v>324</v>
       </c>
@@ -10192,7 +10560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="115.5">
+    <row r="80" spans="1:8" ht="125">
       <c r="A80" s="70" t="s">
         <v>328</v>
       </c>
@@ -10218,7 +10586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="69">
+    <row r="81" spans="1:8" ht="75">
       <c r="A81" s="70" t="s">
         <v>331</v>
       </c>
@@ -10244,7 +10612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="58.5">
+    <row r="82" spans="1:8" ht="62.5">
       <c r="A82" s="70" t="s">
         <v>334</v>
       </c>
@@ -10270,7 +10638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="23.25">
+    <row r="83" spans="1:8" ht="25">
       <c r="A83" s="70" t="s">
         <v>338</v>
       </c>
@@ -10296,7 +10664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25">
+    <row r="84" spans="1:8" ht="25">
       <c r="A84" s="70" t="s">
         <v>341</v>
       </c>
@@ -10322,7 +10690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="58.5">
+    <row r="85" spans="1:8" ht="62.5">
       <c r="A85" s="70" t="s">
         <v>344</v>
       </c>
@@ -10348,7 +10716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="115.5">
+    <row r="86" spans="1:8" ht="125">
       <c r="A86" s="70" t="s">
         <v>347</v>
       </c>
@@ -10374,7 +10742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="138.75">
+    <row r="87" spans="1:8" ht="150">
       <c r="A87" s="70" t="s">
         <v>352</v>
       </c>
@@ -10400,7 +10768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="185.25">
+    <row r="88" spans="1:8" ht="200">
       <c r="A88" s="70" t="s">
         <v>356</v>
       </c>
@@ -10426,7 +10794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="150.75">
+    <row r="89" spans="1:8" ht="162.5">
       <c r="A89" s="70" t="s">
         <v>361</v>
       </c>
@@ -10452,7 +10820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="127.5">
+    <row r="90" spans="1:8" ht="137.5">
       <c r="A90" s="70" t="s">
         <v>364</v>
       </c>
@@ -10478,7 +10846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="150.75">
+    <row r="91" spans="1:8" ht="162.5">
       <c r="A91" s="70" t="s">
         <v>367</v>
       </c>
@@ -10504,7 +10872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="324">
+    <row r="92" spans="1:8" ht="350">
       <c r="A92" s="70" t="s">
         <v>370</v>
       </c>
@@ -10530,7 +10898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="185.25">
+    <row r="93" spans="1:8" ht="200">
       <c r="A93" s="70" t="s">
         <v>374</v>
       </c>
@@ -10556,7 +10924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="58.5">
+    <row r="94" spans="1:8" ht="62.5">
       <c r="A94" s="70" t="s">
         <v>378</v>
       </c>
@@ -10582,7 +10950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="255">
+    <row r="95" spans="1:8" ht="275">
       <c r="A95" s="70" t="s">
         <v>382</v>
       </c>
@@ -10608,7 +10976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="138.75">
+    <row r="96" spans="1:8" ht="150">
       <c r="A96" s="70" t="s">
         <v>385</v>
       </c>
@@ -10634,7 +11002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="162">
+    <row r="97" spans="1:8" ht="175">
       <c r="A97" s="70" t="s">
         <v>389</v>
       </c>
@@ -10660,7 +11028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="196.5">
+    <row r="98" spans="1:8" ht="212.5">
       <c r="A98" s="70" t="s">
         <v>393</v>
       </c>
@@ -10686,7 +11054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="207.75">
+    <row r="99" spans="1:8" ht="225">
       <c r="A99" s="70" t="s">
         <v>397</v>
       </c>
@@ -10712,7 +11080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="207.75">
+    <row r="100" spans="1:8" ht="225">
       <c r="A100" s="70" t="s">
         <v>401</v>
       </c>
@@ -10738,7 +11106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="301.5">
+    <row r="101" spans="1:8" ht="312.5">
       <c r="A101" s="70" t="s">
         <v>405</v>
       </c>
@@ -10795,19 +11163,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="74.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" thickBot="1">
+    <row r="1" spans="1:8" ht="18.5" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
@@ -10833,7 +11201,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" thickBot="1">
+    <row r="2" spans="1:8" ht="75.5" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>13</v>
       </c>
@@ -10859,7 +11227,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="77.25" thickBot="1">
+    <row r="3" spans="1:8" ht="75.5" thickBot="1">
       <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
@@ -10885,7 +11253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.25" thickBot="1">
+    <row r="4" spans="1:8" ht="25.5" thickBot="1">
       <c r="A4" s="70" t="s">
         <v>26</v>
       </c>
@@ -10911,7 +11279,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64.5" thickBot="1">
+    <row r="5" spans="1:8" ht="63" thickBot="1">
       <c r="A5" s="70" t="s">
         <v>29</v>
       </c>
@@ -10937,7 +11305,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="64.5" thickBot="1">
+    <row r="6" spans="1:8" ht="63" thickBot="1">
       <c r="A6" s="70" t="s">
         <v>32</v>
       </c>
@@ -10963,7 +11331,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="77.25" thickBot="1">
+    <row r="7" spans="1:8" ht="75.5" thickBot="1">
       <c r="A7" s="70" t="s">
         <v>36</v>
       </c>
@@ -10989,7 +11357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="115.5" thickBot="1">
+    <row r="8" spans="1:8" ht="113" thickBot="1">
       <c r="A8" s="70" t="s">
         <v>39</v>
       </c>
@@ -11015,7 +11383,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="90" thickBot="1">
+    <row r="9" spans="1:8" ht="75.5" thickBot="1">
       <c r="A9" s="70" t="s">
         <v>44</v>
       </c>
@@ -11041,7 +11409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75" thickBot="1">
+    <row r="10" spans="1:8" ht="50.5" thickBot="1">
       <c r="A10" s="70" t="s">
         <v>48</v>
       </c>
@@ -11067,7 +11435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="90" thickBot="1">
+    <row r="11" spans="1:8" ht="88" thickBot="1">
       <c r="A11" s="70" t="s">
         <v>53</v>
       </c>
@@ -11093,7 +11461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51.75" thickBot="1">
+    <row r="12" spans="1:8" ht="50.5" thickBot="1">
       <c r="A12" s="70" t="s">
         <v>56</v>
       </c>
@@ -11119,7 +11487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" thickBot="1">
+    <row r="13" spans="1:8" ht="50.5" thickBot="1">
       <c r="A13" s="70" t="s">
         <v>59</v>
       </c>
@@ -11145,7 +11513,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="281.25" thickBot="1">
+    <row r="14" spans="1:8" ht="275.5" thickBot="1">
       <c r="A14" s="70" t="s">
         <v>74</v>
       </c>
@@ -11171,7 +11539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="192" thickBot="1">
+    <row r="15" spans="1:8" ht="175.5" thickBot="1">
       <c r="A15" s="70" t="s">
         <v>78</v>
       </c>
@@ -11197,7 +11565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="204.75" thickBot="1">
+    <row r="16" spans="1:8" ht="200.5" thickBot="1">
       <c r="A16" s="70" t="s">
         <v>82</v>
       </c>
@@ -11223,7 +11591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="153.75" thickBot="1">
+    <row r="17" spans="1:8" ht="138" thickBot="1">
       <c r="A17" s="70" t="s">
         <v>86</v>
       </c>
@@ -11249,7 +11617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="115.5" thickBot="1">
+    <row r="18" spans="1:8" ht="100.5" thickBot="1">
       <c r="A18" s="70" t="s">
         <v>90</v>
       </c>
@@ -11275,7 +11643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1">
+    <row r="19" spans="1:8" ht="25.5" thickBot="1">
       <c r="A19" s="70" t="s">
         <v>93</v>
       </c>
@@ -11301,7 +11669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1">
+    <row r="20" spans="1:8" ht="25.5" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>96</v>
       </c>
@@ -11327,7 +11695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1">
+    <row r="21" spans="1:8" ht="25.5" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>100</v>
       </c>
@@ -11353,7 +11721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="179.25" thickBot="1">
+    <row r="22" spans="1:8" ht="163" thickBot="1">
       <c r="A22" s="70" t="s">
         <v>103</v>
       </c>
@@ -11379,7 +11747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="217.5" thickBot="1">
+    <row r="23" spans="1:8" ht="200.5" thickBot="1">
       <c r="A23" s="70" t="s">
         <v>107</v>
       </c>
@@ -11405,7 +11773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="230.25" thickBot="1">
+    <row r="24" spans="1:8" ht="213" thickBot="1">
       <c r="A24" s="70" t="s">
         <v>110</v>
       </c>
@@ -11431,7 +11799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="102.75" thickBot="1">
+    <row r="25" spans="1:8" ht="100.5" thickBot="1">
       <c r="A25" s="70" t="s">
         <v>114</v>
       </c>
@@ -11457,7 +11825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="102.75" thickBot="1">
+    <row r="26" spans="1:8" ht="100.5" thickBot="1">
       <c r="A26" s="70" t="s">
         <v>117</v>
       </c>
@@ -11483,7 +11851,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="102.75" thickBot="1">
+    <row r="27" spans="1:8" ht="100.5" thickBot="1">
       <c r="A27" s="70" t="s">
         <v>121</v>
       </c>
@@ -11509,7 +11877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="115.5" thickBot="1">
+    <row r="28" spans="1:8" ht="113" thickBot="1">
       <c r="A28" s="70" t="s">
         <v>124</v>
       </c>
@@ -11535,7 +11903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39" thickBot="1">
+    <row r="29" spans="1:8" ht="38" thickBot="1">
       <c r="A29" s="70" t="s">
         <v>127</v>
       </c>
@@ -11561,7 +11929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="230.25" thickBot="1">
+    <row r="30" spans="1:8" ht="225.5" thickBot="1">
       <c r="A30" s="70" t="s">
         <v>130</v>
       </c>
@@ -11587,7 +11955,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39" thickBot="1">
+    <row r="31" spans="1:8" ht="38" thickBot="1">
       <c r="A31" s="70" t="s">
         <v>134</v>
       </c>
@@ -11613,7 +11981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39" thickBot="1">
+    <row r="32" spans="1:8" ht="38" thickBot="1">
       <c r="A32" s="70" t="s">
         <v>137</v>
       </c>
@@ -11639,7 +12007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="166.5" thickBot="1">
+    <row r="33" spans="1:8" ht="163" thickBot="1">
       <c r="A33" s="70" t="s">
         <v>140</v>
       </c>
@@ -11665,7 +12033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="217.5" thickBot="1">
+    <row r="34" spans="1:8" ht="213" thickBot="1">
       <c r="A34" s="70" t="s">
         <v>143</v>
       </c>
@@ -11691,7 +12059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39" thickBot="1">
+    <row r="35" spans="1:8" ht="38" thickBot="1">
       <c r="A35" s="70" t="s">
         <v>146</v>
       </c>
@@ -11717,7 +12085,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="90" thickBot="1">
+    <row r="36" spans="1:8" ht="88" thickBot="1">
       <c r="A36" s="70" t="s">
         <v>149</v>
       </c>
@@ -11743,7 +12111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39" thickBot="1">
+    <row r="37" spans="1:8" ht="38" thickBot="1">
       <c r="A37" s="70" t="s">
         <v>152</v>
       </c>
@@ -11769,7 +12137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="77.25" thickBot="1">
+    <row r="38" spans="1:8" ht="75.5" thickBot="1">
       <c r="A38" s="70" t="s">
         <v>156</v>
       </c>
@@ -11795,7 +12163,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="153.75" thickBot="1">
+    <row r="39" spans="1:8" ht="150.5" thickBot="1">
       <c r="A39" s="70" t="s">
         <v>161</v>
       </c>
@@ -11821,7 +12189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="39" thickBot="1">
+    <row r="40" spans="1:8" ht="38" thickBot="1">
       <c r="A40" s="70" t="s">
         <v>174</v>
       </c>
@@ -11847,7 +12215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="64.5" thickBot="1">
+    <row r="41" spans="1:8" ht="63" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>179</v>
       </c>
@@ -11873,7 +12241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="39" thickBot="1">
+    <row r="42" spans="1:8" ht="38" thickBot="1">
       <c r="A42" s="70" t="s">
         <v>183</v>
       </c>
@@ -11899,7 +12267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="141" thickBot="1">
+    <row r="43" spans="1:8" ht="138" thickBot="1">
       <c r="A43" s="70" t="s">
         <v>186</v>
       </c>
@@ -11925,7 +12293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="217.5" thickBot="1">
+    <row r="44" spans="1:8" ht="213" thickBot="1">
       <c r="A44" s="70" t="s">
         <v>190</v>
       </c>
@@ -11951,7 +12319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="217.5" thickBot="1">
+    <row r="45" spans="1:8" ht="200.5" thickBot="1">
       <c r="A45" s="70" t="s">
         <v>194</v>
       </c>
@@ -11977,7 +12345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="128.25" thickBot="1">
+    <row r="46" spans="1:8" ht="125.5" thickBot="1">
       <c r="A46" s="70" t="s">
         <v>197</v>
       </c>
@@ -12003,7 +12371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="179.25" thickBot="1">
+    <row r="47" spans="1:8" ht="175.5" thickBot="1">
       <c r="A47" s="70" t="s">
         <v>200</v>
       </c>
@@ -12029,7 +12397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="153.75" thickBot="1">
+    <row r="48" spans="1:8" ht="150.5" thickBot="1">
       <c r="A48" s="70" t="s">
         <v>203</v>
       </c>
@@ -12055,7 +12423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="26.25" thickBot="1">
+    <row r="49" spans="1:8" ht="25.5" thickBot="1">
       <c r="A49" s="70" t="s">
         <v>206</v>
       </c>
@@ -12081,7 +12449,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="115.5" thickBot="1">
+    <row r="50" spans="1:8" ht="113" thickBot="1">
       <c r="A50" s="70" t="s">
         <v>209</v>
       </c>
@@ -12107,7 +12475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="217.5" thickBot="1">
+    <row r="51" spans="1:8" ht="163" thickBot="1">
       <c r="A51" s="70" t="s">
         <v>212</v>
       </c>
@@ -12133,7 +12501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="39" thickBot="1">
+    <row r="52" spans="1:8" ht="25.5" thickBot="1">
       <c r="A52" s="70" t="s">
         <v>215</v>
       </c>
@@ -12159,7 +12527,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="26.25" thickBot="1">
+    <row r="53" spans="1:8" ht="25.5" thickBot="1">
       <c r="A53" s="70" t="s">
         <v>218</v>
       </c>
@@ -12185,7 +12553,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="64.5" thickBot="1">
+    <row r="54" spans="1:8" ht="63" thickBot="1">
       <c r="A54" s="70" t="s">
         <v>221</v>
       </c>
@@ -12211,7 +12579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="179.25" thickBot="1">
+    <row r="55" spans="1:8" ht="175.5" thickBot="1">
       <c r="A55" s="70" t="s">
         <v>224</v>
       </c>
@@ -12237,7 +12605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="192" thickBot="1">
+    <row r="56" spans="1:8" ht="188" thickBot="1">
       <c r="A56" s="70" t="s">
         <v>227</v>
       </c>
@@ -12263,7 +12631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="128.25" thickBot="1">
+    <row r="57" spans="1:8" ht="125.5" thickBot="1">
       <c r="A57" s="70" t="s">
         <v>155</v>
       </c>
@@ -12289,7 +12657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="115.5" thickBot="1">
+    <row r="58" spans="1:8" ht="88" thickBot="1">
       <c r="A58" s="80" t="s">
         <v>232</v>
       </c>
@@ -12315,7 +12683,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="51.75" thickBot="1">
+    <row r="59" spans="1:8" ht="50.5" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>235</v>
       </c>
@@ -12341,7 +12709,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="90" thickBot="1">
+    <row r="60" spans="1:8" ht="88" thickBot="1">
       <c r="A60" s="70" t="s">
         <v>238</v>
       </c>
@@ -12367,7 +12735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="90" thickBot="1">
+    <row r="61" spans="1:8" ht="88" thickBot="1">
       <c r="A61" s="70" t="s">
         <v>242</v>
       </c>
@@ -12393,7 +12761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="141" thickBot="1">
+    <row r="62" spans="1:8" ht="138" thickBot="1">
       <c r="A62" s="70" t="s">
         <v>245</v>
       </c>
@@ -12419,7 +12787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="268.5" thickBot="1">
+    <row r="63" spans="1:8" ht="250.5" thickBot="1">
       <c r="A63" s="70" t="s">
         <v>272</v>
       </c>
@@ -12445,7 +12813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="128.25" thickBot="1">
+    <row r="64" spans="1:8" ht="125.5" thickBot="1">
       <c r="A64" s="70" t="s">
         <v>277</v>
       </c>
@@ -12497,7 +12865,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="141" thickBot="1">
+    <row r="66" spans="1:8" ht="138" thickBot="1">
       <c r="A66" s="70" t="s">
         <v>285</v>
       </c>
@@ -12523,7 +12891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="128.25" thickBot="1">
+    <row r="67" spans="1:8" ht="113" thickBot="1">
       <c r="A67" s="70" t="s">
         <v>289</v>
       </c>
@@ -12549,7 +12917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="204.75" thickBot="1">
+    <row r="68" spans="1:8" ht="200.5" thickBot="1">
       <c r="A68" s="70" t="s">
         <v>292</v>
       </c>
@@ -12601,7 +12969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="64.5" thickBot="1">
+    <row r="70" spans="1:8" ht="63" thickBot="1">
       <c r="A70" s="70" t="s">
         <v>300</v>
       </c>
@@ -12627,7 +12995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="166.5" thickBot="1">
+    <row r="71" spans="1:8" ht="150.5" thickBot="1">
       <c r="A71" s="70" t="s">
         <v>303</v>
       </c>
@@ -12653,7 +13021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="230.25" thickBot="1">
+    <row r="72" spans="1:8" ht="200.5" thickBot="1">
       <c r="A72" s="85" t="s">
         <v>306</v>
       </c>
@@ -12679,7 +13047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="77.25" thickBot="1">
+    <row r="73" spans="1:8" ht="63" thickBot="1">
       <c r="A73" s="70" t="s">
         <v>309</v>
       </c>
@@ -12705,7 +13073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="39" thickBot="1">
+    <row r="74" spans="1:8" ht="38" thickBot="1">
       <c r="A74" s="70" t="s">
         <v>314</v>
       </c>
@@ -12731,7 +13099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="102.75" thickBot="1">
+    <row r="75" spans="1:8" ht="88" thickBot="1">
       <c r="A75" s="70" t="s">
         <v>318</v>
       </c>
@@ -12757,7 +13125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="77.25" thickBot="1">
+    <row r="76" spans="1:8" ht="75.5" thickBot="1">
       <c r="A76" s="70" t="s">
         <v>321</v>
       </c>
@@ -12783,7 +13151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="90" thickBot="1">
+    <row r="77" spans="1:8" ht="75.5" thickBot="1">
       <c r="A77" s="70" t="s">
         <v>324</v>
       </c>
@@ -12809,7 +13177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="128.25" thickBot="1">
+    <row r="78" spans="1:8" ht="125.5" thickBot="1">
       <c r="A78" s="70" t="s">
         <v>328</v>
       </c>
@@ -12835,7 +13203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="77.25" thickBot="1">
+    <row r="79" spans="1:8" ht="75.5" thickBot="1">
       <c r="A79" s="70" t="s">
         <v>331</v>
       </c>
@@ -12861,7 +13229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="64.5" thickBot="1">
+    <row r="80" spans="1:8" ht="63" thickBot="1">
       <c r="A80" s="70" t="s">
         <v>334</v>
       </c>
@@ -12887,7 +13255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="26.25" thickBot="1">
+    <row r="81" spans="1:8" ht="25.5" thickBot="1">
       <c r="A81" s="70" t="s">
         <v>338</v>
       </c>
@@ -12913,7 +13281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="26.25" thickBot="1">
+    <row r="82" spans="1:8" ht="25.5" thickBot="1">
       <c r="A82" s="70" t="s">
         <v>341</v>
       </c>
@@ -12939,7 +13307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="64.5" thickBot="1">
+    <row r="83" spans="1:8" ht="63" thickBot="1">
       <c r="A83" s="70" t="s">
         <v>344</v>
       </c>
@@ -12965,7 +13333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="128.25" thickBot="1">
+    <row r="84" spans="1:8" ht="125.5" thickBot="1">
       <c r="A84" s="70" t="s">
         <v>347</v>
       </c>
@@ -12991,7 +13359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="153.75" thickBot="1">
+    <row r="85" spans="1:8" ht="150.5" thickBot="1">
       <c r="A85" s="70" t="s">
         <v>352</v>
       </c>
@@ -13017,7 +13385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="217.5" thickBot="1">
+    <row r="86" spans="1:8" ht="200.5" thickBot="1">
       <c r="A86" s="70" t="s">
         <v>356</v>
       </c>
@@ -13043,7 +13411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="166.5" thickBot="1">
+    <row r="87" spans="1:8" ht="150.5" thickBot="1">
       <c r="A87" s="70" t="s">
         <v>361</v>
       </c>
@@ -13069,7 +13437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="141" thickBot="1">
+    <row r="88" spans="1:8" ht="138" thickBot="1">
       <c r="A88" s="70" t="s">
         <v>364</v>
       </c>
@@ -13095,7 +13463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="166.5" thickBot="1">
+    <row r="89" spans="1:8" ht="163" thickBot="1">
       <c r="A89" s="70" t="s">
         <v>367</v>
       </c>
@@ -13121,7 +13489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="357.75" thickBot="1">
+    <row r="90" spans="1:8" ht="350.5" thickBot="1">
       <c r="A90" s="70" t="s">
         <v>370</v>
       </c>
@@ -13147,7 +13515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="204.75" thickBot="1">
+    <row r="91" spans="1:8" ht="200.5" thickBot="1">
       <c r="A91" s="70" t="s">
         <v>374</v>
       </c>
@@ -13173,7 +13541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="64.5" thickBot="1">
+    <row r="92" spans="1:8" ht="63" thickBot="1">
       <c r="A92" s="70" t="s">
         <v>378</v>
       </c>
@@ -13199,7 +13567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="294" thickBot="1">
+    <row r="93" spans="1:8" ht="275.5" thickBot="1">
       <c r="A93" s="70" t="s">
         <v>382</v>
       </c>
@@ -13225,7 +13593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="153.75" thickBot="1">
+    <row r="94" spans="1:8" ht="150.5" thickBot="1">
       <c r="A94" s="70" t="s">
         <v>385</v>
       </c>
@@ -13251,7 +13619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="179.25" thickBot="1">
+    <row r="95" spans="1:8" ht="175.5" thickBot="1">
       <c r="A95" s="70" t="s">
         <v>389</v>
       </c>
@@ -13277,7 +13645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="230.25" thickBot="1">
+    <row r="96" spans="1:8" ht="213" thickBot="1">
       <c r="A96" s="70" t="s">
         <v>393</v>
       </c>
@@ -13303,7 +13671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="230.25" thickBot="1">
+    <row r="97" spans="1:8" ht="225.5" thickBot="1">
       <c r="A97" s="70" t="s">
         <v>397</v>
       </c>
@@ -13329,7 +13697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="230.25" thickBot="1">
+    <row r="98" spans="1:8" ht="225.5" thickBot="1">
       <c r="A98" s="70" t="s">
         <v>401</v>
       </c>
@@ -13355,7 +13723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="332.25" thickBot="1">
+    <row r="99" spans="1:8" ht="313" thickBot="1">
       <c r="A99" s="70" t="s">
         <v>405</v>
       </c>
@@ -13412,25 +13780,25 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="54.7265625" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13462,7 +13830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" thickBot="1">
+    <row r="2" spans="1:10" ht="88" thickBot="1">
       <c r="A2" s="95" t="s">
         <v>10</v>
       </c>
@@ -13519,22 +13887,22 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
     <col min="9" max="9" width="52" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="48" t="s">
         <v>71</v>
       </c>
@@ -13566,7 +13934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="289.5">
+    <row r="2" spans="1:10" ht="312.5">
       <c r="A2" s="40" t="s">
         <v>73</v>
       </c>
@@ -13598,7 +13966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="243" thickBot="1">
+    <row r="3" spans="1:10" ht="225.5" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>77</v>
       </c>
@@ -13630,7 +13998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="255.75" thickBot="1">
+    <row r="4" spans="1:10" ht="238" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>81</v>
       </c>
@@ -13662,7 +14030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="230.25" thickBot="1">
+    <row r="5" spans="1:10" ht="213" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>85</v>
       </c>
@@ -13694,7 +14062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="153.75" thickBot="1">
+    <row r="6" spans="1:10" ht="150.5" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>89</v>
       </c>
@@ -13726,7 +14094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26.25" thickBot="1">
+    <row r="7" spans="1:10" ht="25.5" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>92</v>
       </c>
@@ -13758,7 +14126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" thickBot="1">
+    <row r="8" spans="1:10" ht="25.5" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>95</v>
       </c>
@@ -13790,7 +14158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.25" thickBot="1">
+    <row r="9" spans="1:10" ht="25.5" thickBot="1">
       <c r="A9" s="40" t="s">
         <v>99</v>
       </c>
@@ -13822,7 +14190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="217.5" thickBot="1">
+    <row r="10" spans="1:10" ht="213" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>102</v>
       </c>
@@ -13854,7 +14222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="255.75" thickBot="1">
+    <row r="11" spans="1:10" ht="238" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>106</v>
       </c>
@@ -13886,7 +14254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="319.5" thickBot="1">
+    <row r="12" spans="1:10" ht="300.5" thickBot="1">
       <c r="A12" s="40" t="s">
         <v>109</v>
       </c>
@@ -13918,7 +14286,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="141" thickBot="1">
+    <row r="13" spans="1:10" ht="138" thickBot="1">
       <c r="A13" s="40" t="s">
         <v>113</v>
       </c>
@@ -13950,7 +14318,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="141" thickBot="1">
+    <row r="14" spans="1:10" ht="138" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>116</v>
       </c>
@@ -13982,7 +14350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="166.5" thickBot="1">
+    <row r="15" spans="1:10" ht="150.5" thickBot="1">
       <c r="A15" s="40" t="s">
         <v>120</v>
       </c>
@@ -14014,7 +14382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="179.25" thickBot="1">
+    <row r="16" spans="1:10" ht="175.5" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>123</v>
       </c>
@@ -14046,7 +14414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" thickBot="1">
+    <row r="17" spans="1:11" ht="38" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>126</v>
       </c>
@@ -14078,7 +14446,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="294" thickBot="1">
+    <row r="18" spans="1:11" ht="263" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>129</v>
       </c>
@@ -14110,7 +14478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39" thickBot="1">
+    <row r="19" spans="1:11" ht="38" thickBot="1">
       <c r="A19" s="40" t="s">
         <v>133</v>
       </c>
@@ -14142,7 +14510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="39" thickBot="1">
+    <row r="20" spans="1:11" ht="38" thickBot="1">
       <c r="A20" s="40" t="s">
         <v>136</v>
       </c>
@@ -14174,7 +14542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="268.5" thickBot="1">
+    <row r="21" spans="1:11" ht="263" thickBot="1">
       <c r="A21" s="40" t="s">
         <v>139</v>
       </c>
@@ -14206,7 +14574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="281.25" thickBot="1">
+    <row r="22" spans="1:11" ht="275.5" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>142</v>
       </c>
@@ -14238,7 +14606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="39" thickBot="1">
+    <row r="23" spans="1:11" ht="38" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>145</v>
       </c>
@@ -14270,7 +14638,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="141" thickBot="1">
+    <row r="24" spans="1:11" ht="138" thickBot="1">
       <c r="A24" s="40" t="s">
         <v>148</v>
       </c>
@@ -14302,7 +14670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51.75" thickBot="1">
+    <row r="25" spans="1:11" ht="50.5" thickBot="1">
       <c r="A25" s="40" t="s">
         <v>151</v>
       </c>
@@ -14334,7 +14702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="81">
+    <row r="26" spans="1:11" ht="87.5">
       <c r="A26" s="40" t="s">
         <v>154</v>
       </c>
@@ -14366,7 +14734,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="150.75">
+    <row r="27" spans="1:11" ht="150">
       <c r="A27" s="40" t="s">
         <v>160</v>
       </c>
@@ -14398,7 +14766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="46.5">
+    <row r="28" spans="1:11" ht="50">
       <c r="A28" s="40" t="s">
         <v>163</v>
       </c>
@@ -14457,22 +14825,22 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
     <col min="9" max="9" width="52" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -14504,7 +14872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="217.5" thickBot="1">
+    <row r="2" spans="1:10" ht="213" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -14536,7 +14904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="204.75" thickBot="1">
+    <row r="3" spans="1:10" ht="200.5" thickBot="1">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -14568,7 +14936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="268.5" thickBot="1">
+    <row r="4" spans="1:10" ht="238" thickBot="1">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -14618,25 +14986,25 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="96.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="96.26953125" customWidth="1"/>
+    <col min="10" max="10" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -14668,7 +15036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.25" thickBot="1">
+    <row r="2" spans="1:10" ht="25.5" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>173</v>
       </c>
@@ -14700,7 +15068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51.75" thickBot="1">
+    <row r="3" spans="1:10" ht="38" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>178</v>
       </c>
@@ -14732,7 +15100,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.25" thickBot="1">
+    <row r="4" spans="1:10" ht="25.5" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>182</v>
       </c>
@@ -14764,7 +15132,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="141" thickBot="1">
+    <row r="5" spans="1:10" ht="125.5" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>185</v>
       </c>
@@ -14796,7 +15164,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="217.5" thickBot="1">
+    <row r="6" spans="1:10" ht="213" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>189</v>
       </c>
@@ -14828,7 +15196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="166.5" thickBot="1">
+    <row r="7" spans="1:10" ht="163" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>193</v>
       </c>
@@ -14860,7 +15228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.5" thickBot="1">
+    <row r="8" spans="1:10" ht="100.5" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>196</v>
       </c>
@@ -14892,7 +15260,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="179.25" thickBot="1">
+    <row r="9" spans="1:10" ht="175.5" thickBot="1">
       <c r="A9" s="40" t="s">
         <v>199</v>
       </c>
@@ -14924,7 +15292,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="141" thickBot="1">
+    <row r="10" spans="1:10" ht="138" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>202</v>
       </c>
@@ -14956,7 +15324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.25" thickBot="1">
+    <row r="11" spans="1:10" ht="25.5" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>205</v>
       </c>
@@ -14988,7 +15356,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="102.75" thickBot="1">
+    <row r="12" spans="1:10" ht="88" thickBot="1">
       <c r="A12" s="40" t="s">
         <v>208</v>
       </c>
@@ -15020,7 +15388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="153.75" thickBot="1">
+    <row r="13" spans="1:10" ht="150.5" thickBot="1">
       <c r="A13" s="40" t="s">
         <v>211</v>
       </c>
@@ -15052,7 +15420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.25" thickBot="1">
+    <row r="14" spans="1:10" ht="25.5" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>214</v>
       </c>
@@ -15084,7 +15452,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.25" thickBot="1">
+    <row r="15" spans="1:10" ht="25.5" thickBot="1">
       <c r="A15" s="40" t="s">
         <v>217</v>
       </c>
@@ -15116,7 +15484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51.75" thickBot="1">
+    <row r="16" spans="1:10" ht="50.5" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>220</v>
       </c>
@@ -15148,7 +15516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="166.5" thickBot="1">
+    <row r="17" spans="1:10" ht="163" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>223</v>
       </c>
@@ -15180,7 +15548,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="166.5" thickBot="1">
+    <row r="18" spans="1:10" ht="150.5" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -15212,7 +15580,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="115.5" thickBot="1">
+    <row r="19" spans="1:10" ht="113" thickBot="1">
       <c r="A19" s="40" t="s">
         <v>229</v>
       </c>
@@ -15244,7 +15612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="90" thickBot="1">
+    <row r="20" spans="1:10" ht="75.5" thickBot="1">
       <c r="A20" s="40" t="s">
         <v>231</v>
       </c>
@@ -15276,7 +15644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51.75" thickBot="1">
+    <row r="21" spans="1:10" ht="50.5" thickBot="1">
       <c r="A21" s="40" t="s">
         <v>234</v>
       </c>
@@ -15308,7 +15676,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="77.25" thickBot="1">
+    <row r="22" spans="1:10" ht="75.5" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>237</v>
       </c>
@@ -15340,7 +15708,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="64.5" thickBot="1">
+    <row r="23" spans="1:10" ht="63" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>241</v>
       </c>
@@ -15372,7 +15740,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="128.25" thickBot="1">
+    <row r="24" spans="1:10" ht="125.5" thickBot="1">
       <c r="A24" s="40" t="s">
         <v>244</v>
       </c>
@@ -15435,21 +15803,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.1796875" customWidth="1"/>
+    <col min="10" max="10" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -15481,7 +15849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="77.25" thickBot="1">
+    <row r="2" spans="1:10" ht="75.5" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -15513,7 +15881,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="77.25" thickBot="1">
+    <row r="3" spans="1:10" ht="75.5" thickBot="1">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -15545,7 +15913,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="77.25" thickBot="1">
+    <row r="4" spans="1:10" ht="75.5" thickBot="1">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -15577,7 +15945,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="217.5" thickBot="1">
+    <row r="5" spans="1:10" ht="213" thickBot="1">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -15609,7 +15977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" thickBot="1">
+    <row r="6" spans="1:10" ht="38" thickBot="1">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -15641,7 +16009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="179.25" thickBot="1">
+    <row r="7" spans="1:10" ht="163" thickBot="1">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -15673,7 +16041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="204.75" thickBot="1">
+    <row r="8" spans="1:10" ht="188" thickBot="1">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -15705,7 +16073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="204.75" thickBot="1">
+    <row r="9" spans="1:10" ht="175.5" thickBot="1">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -15737,7 +16105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39" thickBot="1">
+    <row r="10" spans="1:10" ht="38" thickBot="1">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -15769,7 +16137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.25" thickBot="1">
+    <row r="11" spans="1:10" ht="25.5" thickBot="1">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -15801,7 +16169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39" thickBot="1">
+    <row r="12" spans="1:10" ht="38" thickBot="1">
       <c r="A12" s="93">
         <v>11</v>
       </c>
@@ -15855,27 +16223,27 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="77.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="77.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -15907,7 +16275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="268.5" thickBot="1">
+    <row r="2" spans="1:10" ht="374" customHeight="1" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>271</v>
       </c>
@@ -15917,8 +16285,8 @@
       <c r="C2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>272</v>
+      <c r="D2" s="70" t="s">
+        <v>747</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>49</v>
@@ -15932,14 +16300,14 @@
       <c r="H2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>274</v>
+      <c r="I2" s="104" t="s">
+        <v>767</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="128.25" thickBot="1">
+    <row r="3" spans="1:10" ht="225.5" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>276</v>
       </c>
@@ -15950,7 +16318,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>277</v>
+        <v>749</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>87</v>
@@ -15965,7 +16333,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>278</v>
+        <v>748</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>279</v>
@@ -15982,7 +16350,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>281</v>
+        <v>750</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>14</v>
@@ -15997,13 +16365,13 @@
         <v>23</v>
       </c>
       <c r="I4" s="62" t="s">
-        <v>282</v>
+        <v>751</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="141" thickBot="1">
+    <row r="5" spans="1:10" ht="409.6" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>284</v>
       </c>
@@ -16014,7 +16382,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>285</v>
+        <v>752</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>49</v>
@@ -16028,14 +16396,14 @@
       <c r="H5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="62" t="s">
-        <v>286</v>
+      <c r="I5" s="84" t="s">
+        <v>751</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="115.5" thickBot="1">
+    <row r="6" spans="1:10" ht="409.6" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>288</v>
       </c>
@@ -16045,8 +16413,8 @@
       <c r="C6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>289</v>
+      <c r="D6" s="105" t="s">
+        <v>754</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>14</v>
@@ -16060,14 +16428,14 @@
       <c r="H6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="62" t="s">
-        <v>290</v>
+      <c r="I6" s="84" t="s">
+        <v>755</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="204.75" thickBot="1">
+    <row r="7" spans="1:10" ht="409.6" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>291</v>
       </c>
@@ -16078,7 +16446,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>292</v>
+        <v>757</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>87</v>
@@ -16093,7 +16461,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>293</v>
+        <v>762</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>294</v>
@@ -16110,7 +16478,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>296</v>
+        <v>759</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>14</v>
@@ -16125,13 +16493,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>297</v>
+        <v>763</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64.5" thickBot="1">
+    <row r="9" spans="1:10" ht="409.6" thickBot="1">
       <c r="A9" s="40" t="s">
         <v>299</v>
       </c>
@@ -16142,7 +16510,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>300</v>
+        <v>761</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>14</v>
@@ -16157,13 +16525,13 @@
         <v>23</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>301</v>
+        <v>764</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="153.75" thickBot="1">
+    <row r="10" spans="1:10" ht="409.6" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>302</v>
       </c>
@@ -16174,7 +16542,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>303</v>
+        <v>765</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>14</v>
@@ -16189,13 +16557,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="62" t="s">
-        <v>304</v>
+        <v>766</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="204.75" thickBot="1">
+    <row r="11" spans="1:10" ht="200.5" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>305</v>
       </c>
@@ -16227,7 +16595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="77.25" thickBot="1">
+    <row r="12" spans="1:10" ht="63" thickBot="1">
       <c r="A12" s="40" t="s">
         <v>308</v>
       </c>
@@ -16259,7 +16627,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39" thickBot="1">
+    <row r="13" spans="1:10" ht="38" thickBot="1">
       <c r="A13" s="40" t="s">
         <v>312</v>
       </c>
@@ -16291,7 +16659,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="90" thickBot="1">
+    <row r="14" spans="1:10" ht="75.5" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>317</v>
       </c>
@@ -16323,7 +16691,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="77.25" thickBot="1">
+    <row r="15" spans="1:10" ht="63" thickBot="1">
       <c r="A15" s="40" t="s">
         <v>320</v>
       </c>
@@ -16355,7 +16723,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="77.25" thickBot="1">
+    <row r="16" spans="1:10" ht="75.5" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>323</v>
       </c>
@@ -16387,7 +16755,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="128.25" thickBot="1">
+    <row r="17" spans="1:10" ht="113" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>326</v>
       </c>
@@ -16419,7 +16787,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="77.25" thickBot="1">
+    <row r="18" spans="1:10" ht="75.5" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>330</v>
       </c>
@@ -16451,7 +16819,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="64.5" thickBot="1">
+    <row r="19" spans="1:10" ht="63" thickBot="1">
       <c r="A19" s="40" t="s">
         <v>333</v>
       </c>
@@ -16483,7 +16851,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="26.25" thickBot="1">
+    <row r="20" spans="1:10" ht="25.5" thickBot="1">
       <c r="A20" s="40" t="s">
         <v>337</v>
       </c>
@@ -16515,7 +16883,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="26.25" thickBot="1">
+    <row r="21" spans="1:10" ht="25.5" thickBot="1">
       <c r="A21" s="40" t="s">
         <v>340</v>
       </c>
@@ -16547,7 +16915,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="64.5" thickBot="1">
+    <row r="22" spans="1:10" ht="63" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>343</v>
       </c>
@@ -16579,7 +16947,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="128.25" thickBot="1">
+    <row r="23" spans="1:10" ht="113" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>346</v>
       </c>
@@ -16611,7 +16979,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="153.75" thickBot="1">
+    <row r="24" spans="1:10" ht="138" thickBot="1">
       <c r="A24" s="40" t="s">
         <v>350</v>
       </c>
@@ -16643,7 +17011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="204.75" thickBot="1">
+    <row r="25" spans="1:10" ht="200.5" thickBot="1">
       <c r="A25" s="40" t="s">
         <v>354</v>
       </c>
@@ -16675,7 +17043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="166.5" thickBot="1">
+    <row r="26" spans="1:10" ht="150.5" thickBot="1">
       <c r="A26" s="40" t="s">
         <v>359</v>
       </c>
@@ -16707,7 +17075,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="141" thickBot="1">
+    <row r="27" spans="1:10" ht="138" thickBot="1">
       <c r="A27" s="40" t="s">
         <v>363</v>
       </c>
@@ -16739,7 +17107,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="166.5" thickBot="1">
+    <row r="28" spans="1:10" ht="163" thickBot="1">
       <c r="A28" s="40" t="s">
         <v>366</v>
       </c>
@@ -16771,7 +17139,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="357.75" thickBot="1">
+    <row r="29" spans="1:10" ht="350.5" thickBot="1">
       <c r="A29" s="40" t="s">
         <v>369</v>
       </c>
@@ -16803,7 +17171,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="204.75" thickBot="1">
+    <row r="30" spans="1:10" ht="188" thickBot="1">
       <c r="A30" s="40" t="s">
         <v>372</v>
       </c>
@@ -16835,7 +17203,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="64.5" thickBot="1">
+    <row r="31" spans="1:10" ht="63" thickBot="1">
       <c r="A31" s="40" t="s">
         <v>376</v>
       </c>
@@ -16867,7 +17235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="281.25" thickBot="1">
+    <row r="32" spans="1:10" ht="275.5" thickBot="1">
       <c r="A32" s="40" t="s">
         <v>380</v>
       </c>
@@ -16899,7 +17267,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="153.75" thickBot="1">
+    <row r="33" spans="1:10" ht="150.5" thickBot="1">
       <c r="A33" s="40" t="s">
         <v>384</v>
       </c>
@@ -16931,7 +17299,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="179.25" thickBot="1">
+    <row r="34" spans="1:10" ht="175.5" thickBot="1">
       <c r="A34" s="40" t="s">
         <v>387</v>
       </c>
@@ -16963,7 +17331,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="217.5" thickBot="1">
+    <row r="35" spans="1:10" ht="213" thickBot="1">
       <c r="A35" s="40" t="s">
         <v>391</v>
       </c>
@@ -16995,7 +17363,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="230.25" thickBot="1">
+    <row r="36" spans="1:10" ht="225.5" thickBot="1">
       <c r="A36" s="40" t="s">
         <v>395</v>
       </c>
@@ -17027,7 +17395,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="230.25" thickBot="1">
+    <row r="37" spans="1:10" ht="213" thickBot="1">
       <c r="A37" s="40" t="s">
         <v>400</v>
       </c>
@@ -17059,7 +17427,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="319.5" thickBot="1">
+    <row r="38" spans="1:10" ht="300.5" thickBot="1">
       <c r="A38" s="40" t="s">
         <v>403</v>
       </c>
@@ -17115,22 +17483,22 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="77.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="77.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -17162,7 +17530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.25" thickBot="1">
+    <row r="2" spans="1:10" ht="25.5" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -17194,7 +17562,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="332.25" thickBot="1">
+    <row r="3" spans="1:10" ht="325.5" thickBot="1">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -17226,7 +17594,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="217.5" thickBot="1">
+    <row r="4" spans="1:10" ht="213" thickBot="1">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -17258,7 +17626,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="102.75" thickBot="1">
+    <row r="5" spans="1:10" ht="100.5" thickBot="1">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -17290,7 +17658,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="64.5" thickBot="1">
+    <row r="6" spans="1:10" ht="63" thickBot="1">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -17322,7 +17690,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51.75" thickBot="1">
+    <row r="7" spans="1:10" ht="50.5" thickBot="1">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -17354,7 +17722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51.75" thickBot="1">
+    <row r="8" spans="1:10" ht="50.5" thickBot="1">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -17386,7 +17754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51.75" thickBot="1">
+    <row r="9" spans="1:10" ht="50.5" thickBot="1">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -17418,7 +17786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51.75" thickBot="1">
+    <row r="10" spans="1:10" ht="50.5" thickBot="1">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -17450,7 +17818,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39" thickBot="1">
+    <row r="11" spans="1:10" ht="38" thickBot="1">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -17482,7 +17850,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39" thickBot="1">
+    <row r="12" spans="1:10" ht="38" thickBot="1">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -17514,7 +17882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51.75" thickBot="1">
+    <row r="13" spans="1:10" ht="50.5" thickBot="1">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -17546,7 +17914,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.25" thickBot="1">
+    <row r="14" spans="1:10" ht="25.5" thickBot="1">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -17578,7 +17946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39" thickBot="1">
+    <row r="15" spans="1:10" ht="25.5" thickBot="1">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -17610,7 +17978,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.25" thickBot="1">
+    <row r="16" spans="1:10" ht="25.5" thickBot="1">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -17642,7 +18010,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="128.25" thickBot="1">
+    <row r="17" spans="1:10" ht="113" thickBot="1">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -17674,7 +18042,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="115.5" thickBot="1">
+    <row r="18" spans="1:10" ht="113" thickBot="1">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -17706,7 +18074,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="90" thickBot="1">
+    <row r="19" spans="1:10" ht="88" thickBot="1">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -17738,7 +18106,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="166.5" thickBot="1">
+    <row r="20" spans="1:10" ht="150.5" thickBot="1">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -17770,7 +18138,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="230.25" thickBot="1">
+    <row r="21" spans="1:10" ht="225.5" thickBot="1">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -17802,7 +18170,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="153.75" thickBot="1">
+    <row r="22" spans="1:10" ht="150.5" thickBot="1">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -17834,7 +18202,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51.75" thickBot="1">
+    <row r="23" spans="1:10" ht="50.5" thickBot="1">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -17866,7 +18234,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="217.5" thickBot="1">
+    <row r="24" spans="1:10" ht="213" thickBot="1">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -17898,7 +18266,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="128.25" thickBot="1">
+    <row r="25" spans="1:10" ht="113" thickBot="1">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -17930,7 +18298,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="141" thickBot="1">
+    <row r="26" spans="1:10" ht="138" thickBot="1">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -17962,7 +18330,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="166.5" thickBot="1">
+    <row r="27" spans="1:10" ht="163" thickBot="1">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -17994,7 +18362,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="153.75" thickBot="1">
+    <row r="28" spans="1:10" ht="150.5" thickBot="1">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -18026,7 +18394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="64.5" thickBot="1">
+    <row r="29" spans="1:10" ht="63" thickBot="1">
       <c r="A29" s="40">
         <v>28</v>
       </c>
@@ -18058,7 +18426,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="26.25" thickBot="1">
+    <row r="30" spans="1:10" ht="25.5" thickBot="1">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -18090,7 +18458,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="268.5" thickBot="1">
+    <row r="31" spans="1:10" ht="263" thickBot="1">
       <c r="A31" s="40">
         <v>30</v>
       </c>
@@ -18122,7 +18490,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="217.5" thickBot="1">
+    <row r="32" spans="1:10" ht="213" thickBot="1">
       <c r="A32" s="40">
         <v>31</v>
       </c>
@@ -18154,7 +18522,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="230.25" thickBot="1">
+    <row r="33" spans="1:10" ht="213" thickBot="1">
       <c r="A33" s="40">
         <v>32</v>
       </c>
@@ -18186,7 +18554,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="230.25" thickBot="1">
+    <row r="34" spans="1:10" ht="225.5" thickBot="1">
       <c r="A34" s="40">
         <v>33</v>
       </c>
@@ -18218,7 +18586,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="204.75" thickBot="1">
+    <row r="35" spans="1:10" ht="200.5" thickBot="1">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -18250,7 +18618,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="268.5" thickBot="1">
+    <row r="36" spans="1:10" ht="263" thickBot="1">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -18282,7 +18650,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="217.5" thickBot="1">
+    <row r="37" spans="1:10" ht="213" thickBot="1">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -18314,7 +18682,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="255.75" thickBot="1">
+    <row r="38" spans="1:10" ht="238" thickBot="1">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -18346,7 +18714,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="166.5" thickBot="1">
+    <row r="39" spans="1:10" ht="163" thickBot="1">
       <c r="A39" s="40">
         <v>38</v>
       </c>
@@ -18399,26 +18767,26 @@
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="85.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="54.7265625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="85.81640625" style="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.54296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18459,7 +18827,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="90" thickBot="1">
+    <row r="2" spans="1:13" ht="88" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18496,7 +18864,7 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" ht="39" thickBot="1">
+    <row r="3" spans="1:13" ht="38" thickBot="1">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A12" si="0">A2+1</f>
         <v>2</v>
@@ -18532,7 +18900,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="64.5" thickBot="1">
+    <row r="4" spans="1:13" ht="63" thickBot="1">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18570,7 +18938,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="64.5" thickBot="1">
+    <row r="5" spans="1:13" ht="63" thickBot="1">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18608,7 +18976,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="77.25" thickBot="1">
+    <row r="6" spans="1:13" ht="75.5" thickBot="1">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18646,7 +19014,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="77.25" thickBot="1">
+    <row r="7" spans="1:13" ht="63" thickBot="1">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18684,7 +19052,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="141" thickBot="1">
+    <row r="8" spans="1:13" ht="125.5" thickBot="1">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18722,7 +19090,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="115.5" thickBot="1">
+    <row r="9" spans="1:13" ht="88" thickBot="1">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18756,7 +19124,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="64.5" hidden="1" thickBot="1">
+    <row r="10" spans="1:13" ht="63" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18790,7 +19158,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="77.25" thickBot="1">
+    <row r="11" spans="1:13" ht="75.5" thickBot="1">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18824,7 +19192,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18858,7 +19226,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="13.5" thickBot="1">
+    <row r="13" spans="1:13" ht="13" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -18887,7 +19255,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -18924,7 +19292,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="294" hidden="1" thickBot="1">
+    <row r="15" spans="1:13" ht="288" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <f>A14+1</f>
         <v>2</v>
@@ -18962,7 +19330,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="204.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:13" ht="200.5" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <f t="shared" ref="A16:A42" si="1">A15+1</f>
         <v>3</v>
@@ -19000,7 +19368,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="141" hidden="1" thickBot="1">
+    <row r="17" spans="1:13" ht="138" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -19038,7 +19406,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="115.5" hidden="1" thickBot="1">
+    <row r="18" spans="1:13" ht="113" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -19076,7 +19444,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="26.25" hidden="1" thickBot="1">
+    <row r="19" spans="1:13" ht="25.5" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -19112,7 +19480,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="13.5" hidden="1" thickBot="1">
+    <row r="20" spans="1:13" ht="13" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19148,7 +19516,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="13.5" hidden="1" thickBot="1">
+    <row r="21" spans="1:13" ht="13" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -19184,7 +19552,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="192" hidden="1" thickBot="1">
+    <row r="22" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -19222,7 +19590,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="230.25" thickBot="1">
+    <row r="23" spans="1:13" ht="225.5" thickBot="1">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -19260,7 +19628,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="255.75" thickBot="1">
+    <row r="24" spans="1:13" ht="250.5" thickBot="1">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -19298,7 +19666,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="90" thickBot="1">
+    <row r="25" spans="1:13" ht="88" thickBot="1">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -19336,7 +19704,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="102.75" thickBot="1">
+    <row r="26" spans="1:13" ht="100.5" thickBot="1">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -19374,7 +19742,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="128.25" hidden="1" thickBot="1">
+    <row r="27" spans="1:13" ht="113" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -19412,7 +19780,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="141" thickBot="1">
+    <row r="28" spans="1:13" ht="138" thickBot="1">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -19450,7 +19818,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="230.25" hidden="1" thickBot="1">
+    <row r="29" spans="1:13" ht="225.5" hidden="1" thickBot="1">
       <c r="A29" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -19488,7 +19856,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="13.5" thickBot="1">
+    <row r="30" spans="1:13" ht="13" thickBot="1">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -19524,7 +19892,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="31" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A31" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -19562,7 +19930,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" ht="408.75" thickBot="1">
+    <row r="32" spans="1:13" ht="375.5" thickBot="1">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -19600,7 +19968,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="13.5" hidden="1" thickBot="1">
+    <row r="33" spans="1:13" ht="13" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -19636,7 +20004,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="13.5" hidden="1" thickBot="1">
+    <row r="34" spans="1:13" ht="13" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -19672,7 +20040,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="217.5" hidden="1" thickBot="1">
+    <row r="35" spans="1:13" ht="200.5" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -19710,7 +20078,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="243" thickBot="1">
+    <row r="36" spans="1:13" ht="238" thickBot="1">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -19748,7 +20116,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="26.25" thickBot="1">
+    <row r="37" spans="1:13" ht="25.5" thickBot="1">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -19784,7 +20152,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" ht="166.5" hidden="1" thickBot="1">
+    <row r="38" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -19822,7 +20190,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="39" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -19858,7 +20226,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="40" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A40" s="21">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -19926,7 +20294,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="141" hidden="1" thickBot="1">
+    <row r="42" spans="1:13" ht="138" hidden="1" thickBot="1">
       <c r="A42" s="22">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -19962,7 +20330,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="26.25" hidden="1" thickBot="1">
+    <row r="43" spans="1:13" ht="25.5" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -19997,7 +20365,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="141" hidden="1" thickBot="1">
+    <row r="44" spans="1:13" ht="138" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <f>A43+1</f>
         <v>2</v>
@@ -20035,7 +20403,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="153.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:13" ht="150.5" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <f t="shared" ref="A45:A75" si="2">A44+1</f>
         <v>3</v>
@@ -20073,7 +20441,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="141" hidden="1" thickBot="1">
+    <row r="46" spans="1:13" ht="138" hidden="1" thickBot="1">
       <c r="A46" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -20111,7 +20479,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="204.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:13" ht="200.5" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -20149,7 +20517,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="48" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A48" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -20187,7 +20555,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="49" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A49" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -20225,7 +20593,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="50" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A50" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -20263,7 +20631,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -20301,7 +20669,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" ht="128.25" hidden="1" thickBot="1">
+    <row r="52" spans="1:13" ht="125.5" hidden="1" thickBot="1">
       <c r="A52" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -20339,7 +20707,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" ht="153.75" thickBot="1">
+    <row r="53" spans="1:13" ht="150.5" thickBot="1">
       <c r="A53" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -20377,7 +20745,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="54" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A54" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -20413,7 +20781,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" ht="281.25" hidden="1" thickBot="1">
+    <row r="55" spans="1:13" ht="263" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -20451,7 +20819,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="56" spans="1:13" ht="75.5" hidden="1" thickBot="1">
       <c r="A56" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -20489,7 +20857,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" ht="115.5" hidden="1" thickBot="1">
+    <row r="57" spans="1:13" ht="113" hidden="1" thickBot="1">
       <c r="A57" s="9">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -20527,7 +20895,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" ht="230.25" hidden="1" thickBot="1">
+    <row r="58" spans="1:13" ht="213" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -20565,7 +20933,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" ht="192" thickBot="1">
+    <row r="59" spans="1:13" ht="188" thickBot="1">
       <c r="A59" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -20603,7 +20971,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" ht="230.25" hidden="1" thickBot="1">
+    <row r="60" spans="1:13" ht="213" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -20641,7 +21009,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" ht="13.5" thickBot="1">
+    <row r="61" spans="1:13" ht="13" thickBot="1">
       <c r="A61" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -20677,7 +21045,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" ht="153.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:13" ht="150.5" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -20715,7 +21083,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" ht="306.75" thickBot="1">
+    <row r="63" spans="1:13" ht="288" thickBot="1">
       <c r="A63" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -20753,7 +21121,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" ht="26.25" hidden="1" thickBot="1">
+    <row r="64" spans="1:13" ht="25.5" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -20789,7 +21157,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" ht="26.25" hidden="1" thickBot="1">
+    <row r="65" spans="1:13" ht="25.5" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -20825,7 +21193,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" ht="64.5" hidden="1" thickBot="1">
+    <row r="66" spans="1:13" ht="63" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -20863,7 +21231,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="67" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A67" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -20901,7 +21269,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="204.75" thickBot="1">
+    <row r="68" spans="1:13" ht="200.5" thickBot="1">
       <c r="A68" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -20939,7 +21307,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="230.25" thickBot="1">
+    <row r="69" spans="1:13" ht="200.5" thickBot="1">
       <c r="A69" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -20977,7 +21345,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" ht="192" hidden="1" thickBot="1">
+    <row r="70" spans="1:13" ht="188" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -21015,7 +21383,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="115.5" hidden="1" thickBot="1">
+    <row r="71" spans="1:13" ht="113" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -21051,7 +21419,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="64.5" hidden="1" thickBot="1">
+    <row r="72" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -21087,7 +21455,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="166.5" thickBot="1">
+    <row r="73" spans="1:13" ht="150.5" thickBot="1">
       <c r="A73" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -21125,7 +21493,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="90" thickBot="1">
+    <row r="74" spans="1:13" ht="88" thickBot="1">
       <c r="A74" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -21163,7 +21531,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="26.25" hidden="1" thickBot="1">
+    <row r="75" spans="1:13" ht="25.5" hidden="1" thickBot="1">
       <c r="A75" s="11">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -21197,7 +21565,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="76" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -21228,7 +21596,7 @@
       <c r="L76" s="34"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A77" s="9">
         <v>1</v>
       </c>
@@ -21263,7 +21631,7 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="1:13" ht="306.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:13" ht="288" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <f>A77+1</f>
         <v>2</v>
@@ -21301,7 +21669,7 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" ht="306.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:13" ht="288" hidden="1" thickBot="1">
       <c r="A79" s="9">
         <f t="shared" ref="A79:A142" si="3">A78+1</f>
         <v>3</v>
@@ -21339,7 +21707,7 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" ht="166.5" hidden="1" thickBot="1">
+    <row r="80" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -21415,7 +21783,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" ht="204.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -21453,7 +21821,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13" ht="153.75" thickBot="1">
+    <row r="83" spans="1:13" ht="150.5" thickBot="1">
       <c r="A83" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -21491,7 +21859,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" ht="243" hidden="1" thickBot="1">
+    <row r="84" spans="1:13" ht="213" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -21567,7 +21935,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13" ht="90" thickBot="1">
+    <row r="86" spans="1:13" ht="75.5" thickBot="1">
       <c r="A86" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -21605,7 +21973,7 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="153.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:13" ht="150.5" hidden="1" thickBot="1">
       <c r="A87" s="9">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -21643,7 +22011,7 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13" ht="77.25" hidden="1" thickBot="1">
+    <row r="88" spans="1:13" ht="75.5" hidden="1" thickBot="1">
       <c r="A88" s="21">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -21679,7 +22047,7 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" ht="204.75" thickBot="1">
+    <row r="89" spans="1:13" ht="200.5" thickBot="1">
       <c r="A89" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -21717,7 +22085,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" ht="294" hidden="1" thickBot="1">
+    <row r="90" spans="1:13" ht="288" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -21756,7 +22124,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A91" s="9">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -21788,7 +22156,7 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A92" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -21820,7 +22188,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A93" s="9">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -21852,7 +22220,7 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A94" s="9">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -21884,7 +22252,7 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:13" ht="100.5" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -21918,7 +22286,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A96" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -21950,7 +22318,7 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A97" s="9">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -21982,7 +22350,7 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:13" ht="51.75" thickBot="1">
+    <row r="98" spans="1:13" ht="38" thickBot="1">
       <c r="A98" s="3">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -22016,7 +22384,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="99" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A99" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -22048,7 +22416,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:13" ht="115.5" hidden="1" thickBot="1">
+    <row r="100" spans="1:13" ht="113" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -22082,7 +22450,7 @@
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -22116,7 +22484,7 @@
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="1:13" ht="64.5" hidden="1" thickBot="1">
+    <row r="102" spans="1:13" ht="63" hidden="1" thickBot="1">
       <c r="A102" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -22148,7 +22516,7 @@
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:13" ht="100.5" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -22182,7 +22550,7 @@
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="104" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -22216,7 +22584,7 @@
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="1:13" ht="39" hidden="1" thickBot="1">
+    <row r="105" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A105" s="9">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -22250,7 +22618,7 @@
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="1:13" ht="64.5" hidden="1" thickBot="1">
+    <row r="106" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A106" s="9">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -22284,7 +22652,7 @@
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:13" ht="38" hidden="1" thickBot="1">
       <c r="A107" s="9">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -22318,7 +22686,7 @@
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="1:13" ht="77.25" thickBot="1">
+    <row r="108" spans="1:13" ht="75.5" thickBot="1">
       <c r="A108" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -22352,7 +22720,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -22386,7 +22754,7 @@
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -22420,7 +22788,7 @@
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -22454,7 +22822,7 @@
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="1:13" ht="128.25" hidden="1" thickBot="1">
+    <row r="112" spans="1:13" ht="125.5" hidden="1" thickBot="1">
       <c r="A112" s="9">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -22488,7 +22856,7 @@
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="1:13" ht="153.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:13" ht="150.5" hidden="1" thickBot="1">
       <c r="A113" s="9">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -22522,7 +22890,7 @@
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="114" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -22556,7 +22924,7 @@
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:13" ht="100.5" hidden="1" thickBot="1">
       <c r="A115" s="9">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -22590,7 +22958,7 @@
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="116" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -22624,7 +22992,7 @@
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="1:13" ht="192" hidden="1" thickBot="1">
+    <row r="117" spans="1:13" ht="188" hidden="1" thickBot="1">
       <c r="A117" s="9">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -22658,7 +23026,7 @@
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="118" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -22692,7 +23060,7 @@
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="1:13" ht="281.25" hidden="1" thickBot="1">
+    <row r="119" spans="1:13" ht="263" hidden="1" thickBot="1">
       <c r="A119" s="9">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -22726,7 +23094,7 @@
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="120" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A120" s="21">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -22758,7 +23126,7 @@
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" ht="102.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:13" ht="100.5" hidden="1" thickBot="1">
       <c r="A121" s="9">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -22792,7 +23160,7 @@
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:13" ht="238" hidden="1" thickBot="1">
       <c r="A122" s="21">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -22824,7 +23192,7 @@
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="1:13" ht="243" hidden="1" thickBot="1">
+    <row r="123" spans="1:13" ht="238" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -22858,7 +23226,7 @@
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" ht="166.5" hidden="1" thickBot="1">
+    <row r="124" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A124" s="21">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -22890,7 +23258,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" ht="166.5" hidden="1" thickBot="1">
+    <row r="125" spans="1:13" ht="150.5" hidden="1" thickBot="1">
       <c r="A125" s="21">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -22926,7 +23294,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="126" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A126" s="21">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -22962,7 +23330,7 @@
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="1:13" ht="192" thickBot="1">
+    <row r="127" spans="1:13" ht="188" thickBot="1">
       <c r="A127" s="3">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -22996,7 +23364,7 @@
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" ht="166.5" hidden="1" thickBot="1">
+    <row r="128" spans="1:13" ht="163" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -23030,7 +23398,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="1:13" ht="204.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:13" ht="200.5" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -23064,7 +23432,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" ht="179.25" hidden="1" thickBot="1">
+    <row r="130" spans="1:13" ht="175.5" hidden="1" thickBot="1">
       <c r="A130" s="9">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -23098,7 +23466,7 @@
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
     </row>
-    <row r="131" spans="1:13" ht="408.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:13" ht="388" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -23132,7 +23500,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
     </row>
-    <row r="132" spans="1:13" ht="268.5" hidden="1" thickBot="1">
+    <row r="132" spans="1:13" ht="238" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -23166,7 +23534,7 @@
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
     </row>
-    <row r="133" spans="1:13" ht="90" hidden="1" thickBot="1">
+    <row r="133" spans="1:13" ht="88" hidden="1" thickBot="1">
       <c r="A133" s="9">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -23200,7 +23568,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
     </row>
-    <row r="134" spans="1:13" ht="51.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:13" ht="50.5" hidden="1" thickBot="1">
       <c r="A134" s="21">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -23228,7 +23596,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="1:13" ht="332.25" hidden="1" thickBot="1">
+    <row r="135" spans="1:13" ht="325.5" hidden="1" thickBot="1">
       <c r="A135" s="9">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -23262,7 +23630,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" ht="90" thickBot="1">
+    <row r="136" spans="1:13" ht="88" thickBot="1">
       <c r="A136" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -23296,7 +23664,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" ht="332.25" thickBot="1">
+    <row r="137" spans="1:13" ht="313" thickBot="1">
       <c r="A137" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -23330,7 +23698,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A138" s="21">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -23362,7 +23730,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" ht="179.25" thickBot="1">
+    <row r="139" spans="1:13" ht="175.5" thickBot="1">
       <c r="A139" s="3">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -23396,7 +23764,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A140" s="21">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -23428,7 +23796,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="217.5" thickBot="1">
+    <row r="141" spans="1:13" ht="200.5" thickBot="1">
       <c r="A141" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -23462,7 +23830,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="1:13" ht="294" thickBot="1">
+    <row r="142" spans="1:13" ht="250.5" thickBot="1">
       <c r="A142" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -23496,7 +23864,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" ht="281.25" hidden="1" thickBot="1">
+    <row r="143" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A143" s="21">
         <f t="shared" ref="A143:A151" si="4">A142+1</f>
         <v>67</v>
@@ -23528,7 +23896,7 @@
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -23562,7 +23930,7 @@
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A145" s="21">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -23594,7 +23962,7 @@
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" ht="306.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:13" ht="288" hidden="1" thickBot="1">
       <c r="A146" s="21">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -23626,7 +23994,7 @@
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" ht="255.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:13" ht="250.5" hidden="1" thickBot="1">
       <c r="A147" s="21">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -23658,7 +24026,7 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" ht="306.75" thickBot="1">
+    <row r="148" spans="1:13" ht="275.5" thickBot="1">
       <c r="A148" s="3">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -23692,7 +24060,7 @@
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" ht="294" hidden="1" thickBot="1">
+    <row r="149" spans="1:13" ht="275.5" hidden="1" thickBot="1">
       <c r="A149" s="21">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -23724,7 +24092,7 @@
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
     </row>
-    <row r="150" spans="1:13" ht="370.5" thickBot="1">
+    <row r="150" spans="1:13" ht="350.5" thickBot="1">
       <c r="A150" s="3">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -23758,7 +24126,7 @@
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" ht="140.25" hidden="1">
+    <row r="151" spans="1:13" ht="137.5" hidden="1">
       <c r="A151" s="22">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -23885,6 +24253,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E325C5E1CA0CA4D8757752AE85CDEA4" ma:contentTypeVersion="19" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="78fed22f3d73bfbf0c8dc2be5aaddcc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a540ee0f-15f1-424a-95a0-f60bad9abf3c" xmlns:ns4="2bac8fd9-580a-4704-884c-42f0ac152497" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe75e7b625f8587c1ac36aa199dd15f5" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24148,23 +24525,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8329E5CE-7145-4D5E-9BBB-56CB590303FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8329E5CE-7145-4D5E-9BBB-56CB590303FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2bac8fd9-580a-4704-884c-42f0ac152497"/>
+    <ds:schemaRef ds:uri="a540ee0f-15f1-424a-95a0-f60bad9abf3c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109E17EE-BA94-4890-BD97-94E15DD55DB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C44C11D-33D6-47DC-BE5C-3AA75912BF26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C44C11D-33D6-47DC-BE5C-3AA75912BF26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109E17EE-BA94-4890-BD97-94E15DD55DB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a540ee0f-15f1-424a-95a0-f60bad9abf3c"/>
+    <ds:schemaRef ds:uri="2bac8fd9-580a-4704-884c-42f0ac152497"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/AMD_Radar.xlsx
+++ b/docs/AMD_Radar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AMD_Radar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC888D0C-3AD6-4883-9B72-42C36D54FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E65B99-497A-4B97-8920-01E7D6279DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANGUAGES &amp; FRAMEWORKS (IN)" sheetId="12" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="769">
   <si>
     <t>Id</t>
   </si>
@@ -5606,23 +5606,25 @@
   &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://learn.microsoft.com/en-us/fabric/fundamentals/roles-workspaces" target="_blank"&gt;Microsoft Fabric Workspace Roles&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;h4 class="cmp-blip-heading"&gt;Proteção de Dados e Conformidade Orientadas por Políticas para Produtos de Dados&lt;/h4&gt;
-&lt;p&gt;&lt;strong&gt;Segurança e Conformidade (Security &amp; Compliance)&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;A proteção de dados e a aplicação de controlos e regras de conformidade orientadas por políticas é crucial para a proteção dos dados e manutenção de padrões legais. As abordagens envolvem a definição de políticas claras que regulam o tratamento, a segurança e a privacidade dos dados, e a implementação de mecanismos para garantir que essas políticas sejam seguidas de forma consistente em todos os produtos de dados disponibilizados.&lt;/p&gt;
-&lt;p&gt;Mecanismo de governação de segurança concebido para detetar e restringir a partilha ou movimentação de dados sensíveis dentro dos artefactos do Microsoft Fabric (ex: lakehouses, conjuntos de dados, relatórios). Integra-se com o motor de Políticas de Prevenção de Perda de Dados (Data Loss Prevention, DLP) do Microsoft Purview e com o Centro de Conformidade.&lt;/p&gt;
-&lt;p&gt;Estabelece o uso de etiquetas de sensibilidade, classificação automática e políticas DLP para aplicar controlos de acesso e garantir conformidade em toda a cadeia de dados — incluindo conjuntos de dados, relatórios, lakehouses e modelos semânticos. Permite uma governação federada com controlos centrais ("guardrails"), bloqueio de exportações e fluxos de auditoria.&lt;/p&gt;
-&lt;p&gt;Suporta herança de políticas, integração com ferramentas de catalogação (ex: Microsoft Purview) e alinha-se com estratégias de entrega segura de produtos de dados.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Reforçado por:&lt;/strong&gt;&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;Políticas de Prevenção de Perda de Dados (Data Loss Prevention Policies)&lt;/li&gt;
-  &lt;li&gt;Governação Unificada de Acessos Baseada em Funções (Unified Role-Based Access Governance)&lt;/li&gt;
-  &lt;li&gt;Permissões a Nível de Item (Item-Level Permissions)&lt;/li&gt;
-  &lt;li&gt;Governação Federada de Identidades (Federated Identity Governance)&lt;/li&gt;
-  &lt;li&gt;Políticas de Governação Padrão &lt;strong&gt;(futuro)&lt;/strong&gt; (Governance Default Policies)&lt;/li&gt;
-  &lt;li&gt;Visualização de Linhagem (Lineage View)&lt;/li&gt;
-  &lt;li&gt;Microsoft Purview (ferramenta de catalogação e conformidade)&lt;/li&gt;
-  &lt;li&gt;Modelos Semânticos, Relatórios e Conjuntos de Dados do Fabric&lt;/li&gt;
-&lt;/ul&gt;</t>
+    <t xml:space="preserve">  &lt;h3&gt;Observabilidade 2.0 (Observability 2.0)&lt;/h3&gt;
+  &lt;p&gt;&lt;strong&gt;Definição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A Observabilidade é uma prática arquitetural e operacional essencial para compreender o comportamento de sistemas, especialmente em ambientes distribuídos ou cloud-native. Representa uma abordagem moderna que ultrapassa as limitações das ferramentas tradicionais de monitorização.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Descrição&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt;A técnica "Observabilidade 2.0" assinala uma mudança de paradigma: substitui conjuntos fragmentados de ferramentas de monitorização por um modelo unificado baseado em eventos estruturados de alta cardinalidade e com metadados ricos. Estes eventos são armazenados em bruto, num repositório único de dados (single data store), o que simplifica a correlação de dados, permite análises forenses e em tempo real, e potencia investigações dinâmicas sobre sistemas complexos.&lt;/p&gt;
+  &lt;p&gt;As principais características incluem:&lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Captura de dados com alta cardinalidade e dimensão&lt;/li&gt;
+    &lt;li&gt;Repositório unificado de eventos estruturados&lt;/li&gt;
+    &lt;li&gt;Capacidade de análise profunda e resolução de problemas complexos&lt;/li&gt;
+    &lt;li&gt;Integração com o ciclo de vida de desenvolvimento de software&lt;/li&gt;
+    &lt;li&gt;Redução da complexidade operacional das equipas DevOps e SRE&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Este modelo promove a criação de uma "fonte única de verdade" para observabilidade, alinhando práticas de monitorização com requisitos modernos de escalabilidade, performance e colaboração entre equipas de desenvolvimento e operações.&lt;/p&gt;
+  &lt;p&gt;&lt;strong&gt;Referência:&lt;/strong&gt; &lt;a href="https://www.youtube.com/watch?v=IVpQeMDWysA" target="_blank"&gt;Observability 2.0 – Honeycomb.io (YouTube)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Observabilidade 2.0</t>
   </si>
 </sst>
 </file>
@@ -6115,7 +6117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6394,6 +6396,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7641,10 +7646,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54C4A1DC-D6BA-4B1A-BEFD-5D24D2E6298E}" name="Table17" displayName="Table17" ref="A1:J14" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:J14" xr:uid="{04A550D9-EC2E-44A1-B545-CB697A89DE09}"/>
@@ -8492,8 +8493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDA3523-F4E3-4C24-84C7-C45A228B5EE0}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10188,7 +10189,7 @@
       <c r="E65" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="F65" s="104" t="s">
         <v>746</v>
       </c>
       <c r="G65" s="52" t="s">
@@ -10406,9 +10407,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.5" thickBot="1">
-      <c r="A74" s="85" t="s">
-        <v>306</v>
+    <row r="74" spans="1:8" ht="363" thickBot="1">
+      <c r="A74" s="106" t="s">
+        <v>768</v>
       </c>
       <c r="B74" s="42" t="s">
         <v>49</v>
@@ -10422,7 +10423,9 @@
       <c r="E74" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="84"/>
+      <c r="F74" s="103" t="s">
+        <v>767</v>
+      </c>
       <c r="G74" s="41" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="75">
+    <row r="75" spans="1:8" ht="63" thickBot="1">
       <c r="A75" s="70" t="s">
         <v>309</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="87.5">
+    <row r="79" spans="1:8" ht="75">
       <c r="A79" s="70" t="s">
         <v>324</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="162.5">
+    <row r="89" spans="1:8" ht="150">
       <c r="A89" s="70" t="s">
         <v>361</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="312.5">
+    <row r="101" spans="1:8" ht="325">
       <c r="A101" s="70" t="s">
         <v>405</v>
       </c>
@@ -11147,8 +11150,8 @@
     <hyperlink ref="F50" r:id="rId10" display="&lt;p&gt;&lt;strong&gt;Dados e Analitica&lt;/strong&gt;&lt;/p&gt;_x000a_&lt;p&gt;O Dataflows Gen2 é um plataforma low-code de transformação de dados e desempenha um papel cada vez mais central no Microsoft Fabric. &lt;/p&gt;_x000a_&lt;p&gt;Ele é usado para ingestão, modelação e preparação de dados &lt;/p&gt;_x000a_&lt;p&gt;Principais capacidades&lt;/p&gt;_x000a_&lt;p&gt;1. ETL sem conhecimentos de codificação utilizando o Power Query Online.&lt;/p&gt;_x000a_&lt;p&gt;2. Utilização de lakehouse, warehouse ou datamart.&lt;/p&gt;_x000a_&lt;p&gt;3. Suporta atualizações baseadas em agendamentos e eventos.&lt;/p&gt;_x000a_&lt;p&gt;4. Possui integração de linhagem, controle de acessos e utilização de workspaces no Fabric.&lt;/p&gt;_x000a_&lt;p&gt;&lt;strong&gt;&lt;a href=&quot;https://learn.microsoft.com/pt-pt/fabric/data-factory/dataflows-gen2-overview&quot;&gt;Dataflows (Gen2)&lt;/p&gt;" xr:uid="{95E50477-B40D-4C5E-BE06-58E74694A09F}"/>
     <hyperlink ref="F55" r:id="rId11" xr:uid="{27829BC7-E6E8-4653-B0CC-9B0E07D2C605}"/>
     <hyperlink ref="F56" r:id="rId12" xr:uid="{35AD4CB0-C5E5-4A0D-8349-0F8BF9E0DB55}"/>
-    <hyperlink ref="A74" r:id="rId13" xr:uid="{8A8A0069-8C17-44AA-8469-26987274AD1E}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{53B4CDF3-56A5-4A34-9020-1928DC42728B}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{53B4CDF3-56A5-4A34-9020-1928DC42728B}"/>
+    <hyperlink ref="A74" r:id="rId14" display="Observability 2.0" xr:uid="{0C292977-4E47-482E-89CE-294E0B25B874}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -16223,9 +16226,9 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
@@ -16301,7 +16304,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="104" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>275</v>
@@ -16563,7 +16566,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="200.5" thickBot="1">
+    <row r="11" spans="1:10" ht="350.5" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>305</v>
       </c>
@@ -16574,7 +16577,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>306</v>
+        <v>768</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>49</v>
@@ -16589,7 +16592,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>307</v>
+        <v>767</v>
       </c>
       <c r="J11" s="52" t="s">
         <v>51</v>
@@ -17461,7 +17464,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{156CCD5F-1610-4A22-997B-744EE24FF17B}"/>
+    <hyperlink ref="D11" r:id="rId1" display="Observability 2.0" xr:uid="{156CCD5F-1610-4A22-997B-744EE24FF17B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -24243,16 +24246,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="2bac8fd9-580a-4704-884c-42f0ac152497" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24261,7 +24254,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E325C5E1CA0CA4D8757752AE85CDEA4" ma:contentTypeVersion="19" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="78fed22f3d73bfbf0c8dc2be5aaddcc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a540ee0f-15f1-424a-95a0-f60bad9abf3c" xmlns:ns4="2bac8fd9-580a-4704-884c-42f0ac152497" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe75e7b625f8587c1ac36aa199dd15f5" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24525,25 +24518,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8329E5CE-7145-4D5E-9BBB-56CB590303FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2bac8fd9-580a-4704-884c-42f0ac152497"/>
-    <ds:schemaRef ds:uri="a540ee0f-15f1-424a-95a0-f60bad9abf3c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="2bac8fd9-580a-4704-884c-42f0ac152497" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C44C11D-33D6-47DC-BE5C-3AA75912BF26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -24551,7 +24536,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109E17EE-BA94-4890-BD97-94E15DD55DB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24569,4 +24554,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8329E5CE-7145-4D5E-9BBB-56CB590303FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2bac8fd9-580a-4704-884c-42f0ac152497"/>
+    <ds:schemaRef ds:uri="a540ee0f-15f1-424a-95a0-f60bad9abf3c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>